--- a/tests/artifact/data/UI-Settings.data.xlsx
+++ b/tests/artifact/data/UI-Settings.data.xlsx
@@ -14,7 +14,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="217">
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nexial.delayBetweenStepsMs</t>
+    </r>
+  </si>
   <si>
     <t>login.changeServer</t>
   </si>
@@ -340,6 +352,12 @@
     <t>https://gnukhata.org/</t>
   </si>
   <si>
+    <t>ManageUser.InviteButton</t>
+  </si>
+  <si>
+    <t>//button[span='Invite User']</t>
+  </si>
+  <si>
     <t>ManageUser.Users.Label</t>
   </si>
   <si>
@@ -430,40 +448,232 @@
     <t>//a[@role="menuitem"][text()=' Change Org ']</t>
   </si>
   <si>
-    <t>NewOrg.Name</t>
-  </si>
-  <si>
-    <t>User</t>
+    <t>CreateOrg.Button</t>
+  </si>
+  <si>
+    <t>//button[text()='Create Org']</t>
+  </si>
+  <si>
+    <t>CreateOrg.Name</t>
+  </si>
+  <si>
+    <t>//input[@placeholder="Organisation Name"]</t>
+  </si>
+  <si>
+    <t>CreateOrg.State</t>
+  </si>
+  <si>
+    <t>//input[@aria-autocomplete="list"]</t>
+  </si>
+  <si>
+    <t>CreateOrg.LoginButton</t>
+  </si>
+  <si>
+    <t>//button[span='Create &amp; Login']</t>
+  </si>
+  <si>
+    <t>State.Value</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Select.State</t>
+  </si>
+  <si>
+    <t>//ul[@role="listbox"][@class="vs__dropdown-menu"]/li[contains(text(),' ')]</t>
+  </si>
+  <si>
+    <t>Org.Organization</t>
+  </si>
+  <si>
+    <t>//ul[@role="tablist"]/li/a[text()='Organisation']</t>
+  </si>
+  <si>
+    <t>Organization.Name</t>
+  </si>
+  <si>
+    <t>//div[@class="card-body"]/img/parent::div/descendant::div/legend[text()='Name']/parent::div/div/input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.Img</t>
+  </si>
+  <si>
+    <t>//div[@class="card-body"]/img[@src="img/gk.png"]</t>
+  </si>
+  <si>
+    <t>Organization.inputImg</t>
+  </si>
+  <si>
+    <t>//input[@accept="image/jpeg, image/png"]</t>
+  </si>
+  <si>
+    <t>Organization.Website</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='Website']/parent::div/div/input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.Email</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='Email']/parent::div/div/input[@type="email"]</t>
+  </si>
+  <si>
+    <t>Organization.Address</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='Address']/parent::div/div/input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.City</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='City']/parent::div/div/input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.State</t>
+  </si>
+  <si>
+    <t>//Select[@class="custom-select custom-select-sm"]</t>
+  </si>
+  <si>
+    <t>Organization.Country</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='Country']/parent::div/div/input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.Pincode</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='Pincode']/parent::div/div/input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.Phone</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='Phone']/parent::div/descendant::input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.Fax</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='Fax']/parent::div/div/input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.IFSC</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='IFSC Code']/parent::div/descendant::input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.BankName</t>
+  </si>
+  <si>
+    <t>(//div/legend[text()='Name']/parent::div/descendant::input[@type="text"])[2]</t>
+  </si>
+  <si>
+    <t>Organization.Branch</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='Branch']/parent::div/descendant::input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.AccountNumber</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='Account Number']/parent::div/descendant::input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.GSTIN</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='GSTIN']/parent::div/descendant::input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.PAN</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='PAN']/parent::div/descendant::input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.ServiceTax</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='ServiceTax Number']/parent::div/descendant::input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.CessButton</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='CESS']/parent::div/descendant::button[span='CESS']</t>
+  </si>
+  <si>
+    <t>Organization.CessNumber</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='CESS']/parent::div/descendant::input[@type="number"]</t>
+  </si>
+  <si>
+    <t>Organization.CessAdd</t>
+  </si>
+  <si>
+    <t>//footer[@id="cess___BV_modal_footer_"]/button[text()='Add']</t>
+  </si>
+  <si>
+    <t>Organization.CessCancel</t>
+  </si>
+  <si>
+    <t>//footer[@id="cess___BV_modal_footer_"]/button[span='Cancel']</t>
+  </si>
+  <si>
+    <t>Organization.SaveChanges</t>
+  </si>
+  <si>
+    <t>//button[@type="submit"]</t>
+  </si>
+  <si>
+    <t>Organization.DeleteOrg</t>
+  </si>
+  <si>
+    <t>//button[span='Delete Organisation']</t>
+  </si>
+  <si>
+    <t>Validate.button</t>
+  </si>
+  <si>
+    <t>//button[@title="validate"]</t>
+  </si>
+  <si>
+    <t>Autofill.button</t>
+  </si>
+  <si>
+    <t>//button[span='Auto fill']</t>
+  </si>
+  <si>
+    <t>Windows.filename</t>
+  </si>
+  <si>
+    <t>Windows.Open</t>
+  </si>
+  <si>
+    <t>//*[@ClassName="Button" and @ControlType="ControlType.Button" and @Name="Open"]</t>
+  </si>
+  <si>
+    <t>Confirmation.msg</t>
+  </si>
+  <si>
+    <t>//div[text()='Confirm update company ? ']</t>
+  </si>
+  <si>
+    <t>Confirmation.OK</t>
+  </si>
+  <si>
+    <t>//button[@class="btn btn-danger"]</t>
   </si>
   <si>
     <t>Popup.Message</t>
-  </si>
-  <si>
-    <t>//div[@class='b-toaster b-toaster-top-right']/div/div/div/header/strong</t>
-  </si>
-  <si>
-    <t>CreateOrg.Button</t>
-  </si>
-  <si>
-    <t>//button[text()='Create Org']</t>
-  </si>
-  <si>
-    <t>CreateOrg.Name</t>
-  </si>
-  <si>
-    <t>//input[@placeholder="Organisation Name"]</t>
-  </si>
-  <si>
-    <t>CreateOrg.State</t>
-  </si>
-  <si>
-    <t>//input[@aria-labelledby="vs2__combobox"]</t>
-  </si>
-  <si>
-    <t>CreateOrg.LoginButton</t>
-  </si>
-  <si>
-    <t>//button[span='Create &amp; Login']</t>
   </si>
 </sst>
 </file>
@@ -476,7 +686,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,6 +727,12 @@
       <b/>
       <sz val="12"/>
       <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -999,137 +1215,137 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1148,6 +1364,9 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1164,6 +1383,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1222,27 +1449,13 @@
   <dxfs count="23">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="1"/>
-        <strike val="0"/>
-        <color theme="0" tint="-0.349986266670736"/>
+        <b val="1"/>
+        <i val="0"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.249946592608417"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.599963377788629"/>
+          <bgColor theme="0" tint="-0.14996795556505"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1262,11 +1475,25 @@
       <font>
         <b val="1"/>
         <i val="0"/>
-        <color theme="1"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.249946592608417"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14996795556505"/>
+          <bgColor theme="4" tint="0.599963377788629"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="1"/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.349986266670736"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1777,10 +2004,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:A75"/>
+    <sheetView tabSelected="1" topLeftCell="B68" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -1789,1319 +2016,1691 @@
     <col min="2" max="2" width="255.636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
+      <c r="B1" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="7" t="s">
+    </row>
+    <row r="11" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="7" t="s">
+    </row>
+    <row r="13" s="2" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" s="3" customFormat="1" ht="16" spans="1:2">
-      <c r="A13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="7" t="s">
+    </row>
+    <row r="14" s="3" customFormat="1" ht="16" spans="1:2">
+      <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A14" s="4" t="s">
+      <c r="B14" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="7" t="s">
+    </row>
+    <row r="31" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A31" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" ht="16" spans="1:2">
-      <c r="A31" s="4" t="s">
+      <c r="B31" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" ht="16" spans="1:2">
       <c r="A32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" ht="16" spans="1:2">
       <c r="A33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="7" t="s">
+    </row>
+    <row r="34" ht="16" spans="1:2">
+      <c r="A34" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A34" s="4" t="s">
+      <c r="B34" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="7" t="s">
+    </row>
+    <row r="36" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" s="3" customFormat="1" ht="16" spans="1:2">
-      <c r="A36" s="4" t="s">
+      <c r="B36" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="37" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A37" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="38" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A38" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="39" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A39" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="40" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="41" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A41" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="42" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="43" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A43" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="44" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A44" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="45" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="46" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A46" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="47" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A47" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="48" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A48" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="49" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A49" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="50" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A50" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="51" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A51" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="52" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A52" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="53" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A53" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="3" t="s">
+    </row>
+    <row r="54" s="3" customFormat="1" ht="16" spans="1:2">
+      <c r="A54" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="54" ht="15.5" spans="1:2">
-      <c r="A54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="B54" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="55" ht="15.5" spans="1:2">
       <c r="A55" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
         <v>108</v>
-      </c>
-      <c r="B55" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="56" ht="15.5" spans="1:2">
       <c r="A56" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" t="s">
         <v>110</v>
-      </c>
-      <c r="B56" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="57" ht="15.5" spans="1:2">
       <c r="A57" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
         <v>112</v>
-      </c>
-      <c r="B57" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="58" ht="15.5" spans="1:2">
       <c r="A58" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" t="s">
         <v>114</v>
       </c>
-      <c r="B58" t="s">
+    </row>
+    <row r="59" ht="15.5" spans="1:2">
+      <c r="A59" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="59" ht="16" spans="1:2">
-      <c r="A59" s="4" t="s">
+      <c r="B59" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="7" t="s">
+    </row>
+    <row r="60" ht="15.5" spans="1:2">
+      <c r="A60" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="60" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A60" s="4" t="s">
+      <c r="B60" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="7" t="s">
+    </row>
+    <row r="61" ht="16" spans="1:2">
+      <c r="A61" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="61" ht="15.5" spans="1:2">
-      <c r="A61" s="4" t="s">
+      <c r="B61" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B61" t="s">
+    </row>
+    <row r="62" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A62" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="62" ht="15.5" spans="1:2">
-      <c r="A62" s="4" t="s">
+      <c r="B62" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="B62" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="63" ht="15.5" spans="1:2">
       <c r="A63" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
         <v>124</v>
-      </c>
-      <c r="B63" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="64" ht="15.5" spans="1:2">
       <c r="A64" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" t="s">
         <v>126</v>
-      </c>
-      <c r="B64" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="65" ht="15.5" spans="1:2">
       <c r="A65" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" t="s">
         <v>128</v>
-      </c>
-      <c r="B65" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="66" ht="15.5" spans="1:2">
       <c r="A66" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" t="s">
         <v>130</v>
-      </c>
-      <c r="B66" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="67" ht="15.5" spans="1:2">
       <c r="A67" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" t="s">
         <v>132</v>
-      </c>
-      <c r="B67" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="68" ht="15.5" spans="1:2">
       <c r="A68" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" t="s">
         <v>134</v>
-      </c>
-      <c r="B68" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="69" ht="15.5" spans="1:2">
       <c r="A69" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" t="s">
         <v>136</v>
-      </c>
-      <c r="B69" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="70" ht="15.5" spans="1:2">
       <c r="A70" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" t="s">
         <v>138</v>
-      </c>
-      <c r="B70" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="71" ht="15.5" spans="1:2">
       <c r="A71" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" t="s">
         <v>140</v>
-      </c>
-      <c r="B71" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="72" ht="15.5" spans="1:2">
       <c r="A72" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" t="s">
         <v>142</v>
-      </c>
-      <c r="B72" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="73" ht="15.5" spans="1:2">
       <c r="A73" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" t="s">
         <v>144</v>
-      </c>
-      <c r="B73" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="74" ht="15.5" spans="1:2">
       <c r="A74" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" t="s">
         <v>146</v>
-      </c>
-      <c r="B74" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="75" ht="15.5" spans="1:2">
       <c r="A75" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" t="s">
         <v>148</v>
       </c>
-      <c r="B75" t="s">
+    </row>
+    <row r="76" ht="15.5" spans="1:2">
+      <c r="A76" s="11" t="s">
         <v>149</v>
       </c>
+      <c r="B76" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" ht="15.5" spans="1:2">
+      <c r="A77" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" ht="16" spans="1:2">
+      <c r="A78" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" ht="15.5" spans="1:2">
+      <c r="A79" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" ht="15.5" spans="1:2">
+      <c r="A80" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" ht="15.5" spans="1:2">
+      <c r="A81" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" ht="15.5" spans="1:2">
+      <c r="A82" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" ht="15.5" spans="1:2">
+      <c r="A83" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" ht="15.5" spans="1:2">
+      <c r="A84" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" ht="15.5" spans="1:2">
+      <c r="A85" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" ht="15.5" spans="1:2">
+      <c r="A86" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" ht="15.5" spans="1:2">
+      <c r="A87" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" ht="15.5" spans="1:2">
+      <c r="A88" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" ht="15.5" spans="1:2">
+      <c r="A89" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" ht="15.5" spans="1:2">
+      <c r="A90" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" ht="15.5" spans="1:2">
+      <c r="A91" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" ht="15.5" spans="1:2">
+      <c r="A92" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" ht="15.5" spans="1:2">
+      <c r="A93" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" ht="15.5" spans="1:2">
+      <c r="A94" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" ht="15.5" spans="1:2">
+      <c r="A95" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" ht="15.5" spans="1:2">
+      <c r="A96" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B96" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" ht="15.5" spans="1:2">
+      <c r="A97" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98" ht="15.5" spans="1:2">
+      <c r="A98" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B98" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" ht="15.5" spans="1:2">
+      <c r="A99" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B99" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" ht="15.5" spans="1:2">
+      <c r="A100" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B100" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" ht="15.5" spans="1:2">
+      <c r="A101" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B101" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" ht="15.5" spans="1:2">
+      <c r="A102" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B102" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" ht="15.5" spans="1:2">
+      <c r="A103" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B103" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" ht="15.5" spans="1:2">
+      <c r="A104" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B104" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" ht="15.5" spans="1:2">
+      <c r="A105" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B105" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" ht="15.5" spans="1:2">
+      <c r="A106" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B106" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" ht="15.5" spans="1:2">
+      <c r="A107" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" ht="15.5" spans="1:2">
+      <c r="A108" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" ht="15.5" spans="1:2">
+      <c r="A109" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B109" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" ht="15.5" spans="1:2">
+      <c r="A110" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="beginsWith" dxfId="0" priority="147" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A13,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="148" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A13,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="149" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A13,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="150" stopIfTrue="1">
-      <formula>LEN(TRIM(A13))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
+  <conditionalFormatting sqref="A1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="34" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="33" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="32" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="31" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A1,LEN("//"))="//"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="beginsWith" dxfId="3" priority="181" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A14,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="182" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A14,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="183" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A14,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="184" stopIfTrue="1">
+      <formula>LEN(TRIM(A14))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="4" priority="185" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="186">
+      <formula>LEN(TRIM(B14))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="beginsWith" dxfId="3" priority="163" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A16,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="164" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A16,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="165" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A16,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="166" stopIfTrue="1">
+      <formula>LEN(TRIM(A16))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:E16">
+    <cfRule type="expression" dxfId="4" priority="167" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="168">
+      <formula>LEN(TRIM(B16))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="beginsWith" dxfId="3" priority="159" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A20,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="160" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A20,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="161" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A20,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="162" stopIfTrue="1">
+      <formula>LEN(TRIM(A20))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="expression" dxfId="4" priority="129" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="130">
+      <formula>LEN(TRIM(B20))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:E20">
+    <cfRule type="expression" dxfId="4" priority="237" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="238">
+      <formula>LEN(TRIM(C20))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="beginsWith" dxfId="3" priority="153" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A21,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="154" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A21,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="155" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A21,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="156" stopIfTrue="1">
+      <formula>LEN(TRIM(A21))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:E21">
+    <cfRule type="expression" dxfId="4" priority="157" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="158">
+      <formula>LEN(TRIM(B21))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="beginsWith" dxfId="3" priority="143" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A22,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="144" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A22,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="145" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A22,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="146" stopIfTrue="1">
+      <formula>LEN(TRIM(A22))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="expression" dxfId="4" priority="87" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="88">
+      <formula>LEN(TRIM(B22))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:E22">
     <cfRule type="expression" dxfId="4" priority="151" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="152">
-      <formula>LEN(TRIM(B13))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="beginsWith" dxfId="0" priority="129" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A15,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="130" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A15,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="131" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A15,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="132" stopIfTrue="1">
-      <formula>LEN(TRIM(A15))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:E15">
-    <cfRule type="expression" dxfId="4" priority="133" stopIfTrue="1">
+      <formula>LEN(TRIM(C22))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="beginsWith" dxfId="3" priority="137" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A23,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="138" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A23,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="139" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A23,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="140" stopIfTrue="1">
+      <formula>LEN(TRIM(A23))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="4" priority="85" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="134">
-      <formula>LEN(TRIM(B15))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="beginsWith" dxfId="0" priority="125" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A19,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="126" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A19,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="127" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A19,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="128" stopIfTrue="1">
-      <formula>LEN(TRIM(A19))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="4" priority="95" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="86">
+      <formula>LEN(TRIM(B23))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:E23">
+    <cfRule type="expression" dxfId="4" priority="141" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="96">
-      <formula>LEN(TRIM(B19))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:E19">
-    <cfRule type="expression" dxfId="4" priority="203" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="142">
+      <formula>LEN(TRIM(C23))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="beginsWith" dxfId="3" priority="131" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A24,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="132" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A24,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="133" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A24,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="134" stopIfTrue="1">
+      <formula>LEN(TRIM(A24))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:E24">
+    <cfRule type="expression" dxfId="4" priority="135" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="204">
-      <formula>LEN(TRIM(C19))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
-    <cfRule type="beginsWith" dxfId="0" priority="119" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A20,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="120" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A20,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="121" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A20,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="122" stopIfTrue="1">
-      <formula>LEN(TRIM(A20))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:E20">
-    <cfRule type="expression" dxfId="4" priority="123" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="136">
+      <formula>LEN(TRIM(B24))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="expression" dxfId="4" priority="127" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="124">
-      <formula>LEN(TRIM(B20))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="beginsWith" dxfId="0" priority="109" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A21,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="110" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A21,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="111" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A21,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="112" stopIfTrue="1">
-      <formula>LEN(TRIM(A21))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="4" priority="53" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="128">
+      <formula>LEN(TRIM(B25))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="beginsWith" dxfId="3" priority="121" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A28,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="122" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A28,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="123" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A28,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="124" stopIfTrue="1">
+      <formula>LEN(TRIM(A28))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:E28">
+    <cfRule type="expression" dxfId="4" priority="125" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="54">
-      <formula>LEN(TRIM(B21))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:E21">
-    <cfRule type="expression" dxfId="4" priority="117" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="126">
+      <formula>LEN(TRIM(B28))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="beginsWith" dxfId="3" priority="117" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A29,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="118" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A29,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="119" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A29,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="120" stopIfTrue="1">
+      <formula>LEN(TRIM(A29))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="beginsWith" dxfId="3" priority="111" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A30,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="112" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A30,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="113" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A30,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="114" stopIfTrue="1">
+      <formula>LEN(TRIM(A30))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:E30">
+    <cfRule type="expression" dxfId="4" priority="115" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="118">
-      <formula>LEN(TRIM(C21))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="beginsWith" dxfId="0" priority="103" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A22,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="104" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A22,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="105" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A22,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="106" stopIfTrue="1">
-      <formula>LEN(TRIM(A22))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="4" priority="51" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="116">
+      <formula>LEN(TRIM(B30))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="beginsWith" dxfId="3" priority="105" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A31,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="106" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A31,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="107" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A31,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="108" stopIfTrue="1">
+      <formula>LEN(TRIM(A31))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:E31">
+    <cfRule type="expression" dxfId="4" priority="109" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="52">
-      <formula>LEN(TRIM(B22))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:E22">
-    <cfRule type="expression" dxfId="4" priority="107" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="110">
+      <formula>LEN(TRIM(B31))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="beginsWith" dxfId="3" priority="101" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A32,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="102" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A32,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="103" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A32,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="104" stopIfTrue="1">
+      <formula>LEN(TRIM(A32))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="4" priority="207" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="108">
-      <formula>LEN(TRIM(C22))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="beginsWith" dxfId="0" priority="97" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A23,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="98" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A23,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="99" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A23,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="100" stopIfTrue="1">
-      <formula>LEN(TRIM(A23))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:E23">
-    <cfRule type="expression" dxfId="4" priority="101" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="208">
+      <formula>LEN(TRIM(B32))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="beginsWith" dxfId="3" priority="97" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A33,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="98" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A33,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="99" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A33,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="100" stopIfTrue="1">
+      <formula>LEN(TRIM(A33))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="4" priority="201" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="102">
-      <formula>LEN(TRIM(B23))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="4" priority="93" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="202">
+      <formula>LEN(TRIM(B33))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="beginsWith" dxfId="3" priority="93" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A34,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="94" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A34,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="95" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A34,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="96" stopIfTrue="1">
+      <formula>LEN(TRIM(A34))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="expression" dxfId="4" priority="195" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="94">
-      <formula>LEN(TRIM(B24))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="beginsWith" dxfId="0" priority="87" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A27,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="88" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A27,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="89" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A27,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="90" stopIfTrue="1">
-      <formula>LEN(TRIM(A27))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:E27">
-    <cfRule type="expression" dxfId="4" priority="91" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="196">
+      <formula>LEN(TRIM(B34))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="beginsWith" dxfId="3" priority="89" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A38,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="90" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A38,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="91" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A38,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="92" stopIfTrue="1">
+      <formula>LEN(TRIM(A38))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="beginsWith" dxfId="3" priority="173" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A54,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="174" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A54,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="175" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A54,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="176" stopIfTrue="1">
+      <formula>LEN(TRIM(A54))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61">
+    <cfRule type="beginsWith" dxfId="3" priority="75" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A61,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="76" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A61,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="77" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A61,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="78" stopIfTrue="1">
+      <formula>LEN(TRIM(A61))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61">
+    <cfRule type="expression" dxfId="4" priority="79" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="92">
-      <formula>LEN(TRIM(B27))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="beginsWith" dxfId="0" priority="83" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A28,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="84" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A28,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="85" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A28,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="86" stopIfTrue="1">
-      <formula>LEN(TRIM(A28))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="beginsWith" dxfId="0" priority="77" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A29,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="78" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A29,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="79" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A29,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="80" stopIfTrue="1">
-      <formula>LEN(TRIM(A29))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:E29">
-    <cfRule type="expression" dxfId="4" priority="81" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="80">
+      <formula>LEN(TRIM(B61))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="beginsWith" dxfId="3" priority="69" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A62,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="70" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A62,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="71" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A62,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="72" stopIfTrue="1">
+      <formula>LEN(TRIM(A62))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62">
+    <cfRule type="expression" dxfId="4" priority="67" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="82">
-      <formula>LEN(TRIM(B29))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="beginsWith" dxfId="0" priority="71" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A30,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="72" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A30,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="73" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A30,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="74" stopIfTrue="1">
-      <formula>LEN(TRIM(A30))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:E30">
-    <cfRule type="expression" dxfId="4" priority="75" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="68">
+      <formula>LEN(TRIM(B62))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62:E62">
+    <cfRule type="expression" dxfId="4" priority="73" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="76">
-      <formula>LEN(TRIM(B30))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="beginsWith" dxfId="0" priority="67" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A31,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="68" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A31,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="69" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A31,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="70" stopIfTrue="1">
-      <formula>LEN(TRIM(A31))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="4" priority="173" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="74">
+      <formula>LEN(TRIM(C62))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="beginsWith" dxfId="3" priority="59" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A67,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="60" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A67,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="61" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A67,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="62" stopIfTrue="1">
+      <formula>LEN(TRIM(A67))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="beginsWith" dxfId="3" priority="55" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A68,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="56" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A68,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="57" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A68,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="58" stopIfTrue="1">
+      <formula>LEN(TRIM(A68))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="beginsWith" dxfId="3" priority="47" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A71,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="48" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A71,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="49" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A71,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="50" stopIfTrue="1">
+      <formula>LEN(TRIM(A71))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78">
+    <cfRule type="expression" dxfId="4" priority="21" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="174">
-      <formula>LEN(TRIM(B31))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="beginsWith" dxfId="0" priority="63" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A32,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="64" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A32,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="65" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A32,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="66" stopIfTrue="1">
-      <formula>LEN(TRIM(A32))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="4" priority="167" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="22">
+      <formula>LEN(TRIM(B78))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106">
+    <cfRule type="beginsWith" dxfId="3" priority="13" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A106,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="14" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A106,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="15" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A106,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="16" stopIfTrue="1">
+      <formula>LEN(TRIM(A106))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A109">
+    <cfRule type="beginsWith" dxfId="3" priority="9" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A109,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A109,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A109,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="12" stopIfTrue="1">
+      <formula>LEN(TRIM(A109))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110">
+    <cfRule type="beginsWith" dxfId="3" priority="1" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A110,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A110,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A110,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>LEN(TRIM(A110))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A8">
+    <cfRule type="beginsWith" dxfId="3" priority="219" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A2,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="220" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A2,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="221" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A2,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="222" stopIfTrue="1">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A10">
+    <cfRule type="beginsWith" dxfId="3" priority="251" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A9,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="252" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A9,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="253" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A9,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="254" stopIfTrue="1">
+      <formula>LEN(TRIM(A9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A19">
+    <cfRule type="beginsWith" dxfId="3" priority="239" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A17,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="240" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A17,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="241" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A17,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="242" stopIfTrue="1">
+      <formula>LEN(TRIM(A17))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:A27">
+    <cfRule type="beginsWith" dxfId="3" priority="227" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A25,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="228" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A25,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="229" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A25,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="230" stopIfTrue="1">
+      <formula>LEN(TRIM(A25))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:A36">
+    <cfRule type="beginsWith" dxfId="3" priority="187" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A35,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="188" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A35,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="189" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A35,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="190" stopIfTrue="1">
+      <formula>LEN(TRIM(A35))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:A56">
+    <cfRule type="beginsWith" dxfId="3" priority="169" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A55,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="170" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A55,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="171" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A55,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="172" stopIfTrue="1">
+      <formula>LEN(TRIM(A55))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:A60">
+    <cfRule type="beginsWith" dxfId="3" priority="81" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A57,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="82" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A57,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="83" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A57,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="84" stopIfTrue="1">
+      <formula>LEN(TRIM(A57))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:A66">
+    <cfRule type="beginsWith" dxfId="3" priority="63" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A63,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="64" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A63,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="65" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A63,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="66" stopIfTrue="1">
+      <formula>LEN(TRIM(A63))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:A70">
+    <cfRule type="beginsWith" dxfId="3" priority="51" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A69,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="52" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A69,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A69,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="54" stopIfTrue="1">
+      <formula>LEN(TRIM(A69))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:A76">
+    <cfRule type="beginsWith" dxfId="3" priority="35" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A72,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="36" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A72,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="37" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A72,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="38" stopIfTrue="1">
+      <formula>LEN(TRIM(A72))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77:A78">
+    <cfRule type="beginsWith" dxfId="3" priority="27" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A77,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="28" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A77,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A77,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="30" stopIfTrue="1">
+      <formula>LEN(TRIM(A77))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79:A103">
+    <cfRule type="beginsWith" dxfId="3" priority="23" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A79,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A79,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="25" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A79,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="26" stopIfTrue="1">
+      <formula>LEN(TRIM(A79))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104:A105">
+    <cfRule type="beginsWith" dxfId="3" priority="17" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A104,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A104,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="19" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A104,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="20" stopIfTrue="1">
+      <formula>LEN(TRIM(A104))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A107:A108">
+    <cfRule type="beginsWith" dxfId="3" priority="5" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A107,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A107,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A107,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="8" stopIfTrue="1">
+      <formula>LEN(TRIM(A107))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B8">
+    <cfRule type="expression" dxfId="4" priority="223" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="168">
-      <formula>LEN(TRIM(B32))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="beginsWith" dxfId="0" priority="59" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A33,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="60" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A33,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="61" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A33,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="62" stopIfTrue="1">
-      <formula>LEN(TRIM(A33))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="4" priority="161" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="224">
+      <formula>LEN(TRIM(B2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B10">
+    <cfRule type="expression" dxfId="4" priority="255" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="162">
-      <formula>LEN(TRIM(B33))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="beginsWith" dxfId="0" priority="55" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A37,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A37,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="57" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A37,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="58" stopIfTrue="1">
-      <formula>LEN(TRIM(A37))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
-    <cfRule type="beginsWith" dxfId="0" priority="139" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A53,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="140" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A53,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="141" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A53,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="142" stopIfTrue="1">
-      <formula>LEN(TRIM(A53))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="beginsWith" dxfId="0" priority="135" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A54,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="136" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A54,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="137" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A54,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="138" stopIfTrue="1">
-      <formula>LEN(TRIM(A54))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="beginsWith" dxfId="0" priority="41" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A59,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="42" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A59,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="43" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A59,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="44" stopIfTrue="1">
-      <formula>LEN(TRIM(A59))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
-    <cfRule type="expression" dxfId="4" priority="45" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="46">
-      <formula>LEN(TRIM(B59))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="38" stopIfTrue="1">
-      <formula>LEN(TRIM(A60))&gt;0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="37" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A60,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="36" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A60,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="35" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A60,LEN("//"))="//"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="34">
-      <formula>LEN(TRIM(B60))&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="33" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60:E60">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="40">
-      <formula>LEN(TRIM(C60))&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="39" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
-    <cfRule type="beginsWith" dxfId="0" priority="25" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A65,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A65,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="27" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A65,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="28" stopIfTrue="1">
-      <formula>LEN(TRIM(A65))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="24" stopIfTrue="1">
-      <formula>LEN(TRIM(A66))&gt;0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="23" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A66,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="22" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A66,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="21" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A66,LEN("//"))="//"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="16" stopIfTrue="1">
-      <formula>LEN(TRIM(A69))&gt;0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A69,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A69,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A69,LEN("//"))="//"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="12" stopIfTrue="1">
-      <formula>LEN(TRIM(A70))&gt;0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="11" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A70,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="10" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A70,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A70,LEN("//"))="//"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="8" stopIfTrue="1">
-      <formula>LEN(TRIM(A71))&gt;0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A71,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="6" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A71,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="5" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A71,LEN("//"))="//"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A7">
-    <cfRule type="beginsWith" dxfId="0" priority="185" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A1,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="186" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="187" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="188" stopIfTrue="1">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A9">
-    <cfRule type="beginsWith" dxfId="0" priority="217" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A8,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="218" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A8,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="219" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A8,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="220" stopIfTrue="1">
-      <formula>LEN(TRIM(A8))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:A18">
-    <cfRule type="beginsWith" dxfId="0" priority="205" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A16,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="206" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A16,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="207" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A16,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="208" stopIfTrue="1">
-      <formula>LEN(TRIM(A16))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:A26">
-    <cfRule type="beginsWith" dxfId="0" priority="193" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A24,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="194" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A24,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="195" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A24,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="196" stopIfTrue="1">
-      <formula>LEN(TRIM(A24))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:A35">
-    <cfRule type="beginsWith" dxfId="0" priority="153" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A34,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="154" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A34,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="155" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A34,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="156" stopIfTrue="1">
-      <formula>LEN(TRIM(A34))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:A58">
-    <cfRule type="beginsWith" dxfId="0" priority="47" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A55,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="48" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A55,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="49" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A55,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="50" stopIfTrue="1">
-      <formula>LEN(TRIM(A55))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:A64">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="32" stopIfTrue="1">
-      <formula>LEN(TRIM(A61))&gt;0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="31" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A61,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="30" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A61,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="29" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A61,LEN("//"))="//"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:A68">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="20" stopIfTrue="1">
-      <formula>LEN(TRIM(A67))&gt;0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="19" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A67,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="18" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A67,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="17" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A67,LEN("//"))="//"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A75">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>LEN(TRIM(A72))&gt;0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A72,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A72,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A72,LEN("//"))="//"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B7">
-    <cfRule type="expression" dxfId="4" priority="189" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="190">
-      <formula>LEN(TRIM(B1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B9">
-    <cfRule type="expression" dxfId="4" priority="221" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="222">
-      <formula>LEN(TRIM(B8))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:B35">
-    <cfRule type="expression" dxfId="4" priority="157" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="158">
-      <formula>LEN(TRIM(B34))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E7">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="256">
+      <formula>LEN(TRIM(B9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:B36">
     <cfRule type="expression" dxfId="4" priority="191" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="192">
-      <formula>LEN(TRIM(C1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:E12 C8:E9 B14:E14">
-    <cfRule type="expression" dxfId="4" priority="227" stopIfTrue="1">
+      <formula>LEN(TRIM(B35))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:E8">
+    <cfRule type="expression" dxfId="4" priority="225" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="228">
-      <formula>LEN(TRIM(B8))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:A12 A14">
-    <cfRule type="beginsWith" dxfId="0" priority="223" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A10,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="224" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A10,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="225" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A10,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="226" stopIfTrue="1">
-      <formula>LEN(TRIM(A10))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:E18">
-    <cfRule type="expression" dxfId="4" priority="209" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="226">
+      <formula>LEN(TRIM(C2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:E13 B15:E15 C9:E10">
+    <cfRule type="expression" dxfId="4" priority="261" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="210">
-      <formula>LEN(TRIM(B16))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:E24 B25:E26 B28:E28">
-    <cfRule type="expression" dxfId="4" priority="197" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="262">
+      <formula>LEN(TRIM(B9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:A13 A15">
+    <cfRule type="beginsWith" dxfId="3" priority="257" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A11,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="258" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A11,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="259" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A11,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="260" stopIfTrue="1">
+      <formula>LEN(TRIM(A11))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:E19">
+    <cfRule type="expression" dxfId="4" priority="243" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="198">
-      <formula>LEN(TRIM(B24))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:E35">
-    <cfRule type="expression" dxfId="4" priority="159" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="244">
+      <formula>LEN(TRIM(B17))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:E25 B29:E29 B26:E27">
+    <cfRule type="expression" dxfId="4" priority="231" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="160">
-      <formula>LEN(TRIM(C34))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36 A38:A52">
-    <cfRule type="beginsWith" dxfId="0" priority="143" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A36,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="144" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A36,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="145" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A36,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="146" stopIfTrue="1">
-      <formula>LEN(TRIM(A36))&gt;0</formula>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="232">
+      <formula>LEN(TRIM(B25))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35:E36">
+    <cfRule type="expression" dxfId="4" priority="193" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="194">
+      <formula>LEN(TRIM(C35))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37 A39:A53">
+    <cfRule type="beginsWith" dxfId="3" priority="177" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A37,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="178" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A37,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="179" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A37,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="180" stopIfTrue="1">
+      <formula>LEN(TRIM(A37))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tests/artifact/data/UI-Settings.data.xlsx
+++ b/tests/artifact/data/UI-Settings.data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="222">
   <si>
     <r>
       <rPr>
@@ -52,12 +52,6 @@
     <t>//input[@placeholder='Password']</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>crypt:0db89afc616782385ecd997f4e5511e6e2d6315103adea76</t>
-  </si>
-  <si>
     <t>button.submit</t>
   </si>
   <si>
@@ -79,7 +73,7 @@
     <t>Org.Name</t>
   </si>
   <si>
-    <t>IndianInstitute</t>
+    <t>ReynoldsCompany</t>
   </si>
   <si>
     <t>org.hamburger</t>
@@ -112,6 +106,12 @@
     <t>//select[@id="gs-t1-select-10"]</t>
   </si>
   <si>
+    <t>org.General.DataFormatValue</t>
+  </si>
+  <si>
+    <t>dd-mm-yyyy,yyyy-mm-dd,mm-dd-yyyy</t>
+  </si>
+  <si>
     <t>org.General.AppLanguageField</t>
   </si>
   <si>
@@ -142,12 +142,24 @@
     <t>//ul[@role="tablist"]/li/a[text()='Transaction']</t>
   </si>
   <si>
+    <t>org.Transaction.PaymentModeValue</t>
+  </si>
+  <si>
+    <t>cash,bank,credit</t>
+  </si>
+  <si>
     <t>org.Transaction.PaymentMode</t>
   </si>
   <si>
     <t>//select[@id="gs-t2-select-10"]</t>
   </si>
   <si>
+    <t>org.Transaction.TaxModeValue</t>
+  </si>
+  <si>
+    <t>None,GST,VAT,GST &amp; VAT</t>
+  </si>
+  <si>
     <t>org.Transaction.TaxMode</t>
   </si>
   <si>
@@ -674,6 +686,9 @@
   </si>
   <si>
     <t>Popup.Message</t>
+  </si>
+  <si>
+    <t>EmptyValue</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1376,6 +1391,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2004,10 +2023,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B68" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -2048,7 +2067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
+    <row r="5" s="1" customFormat="1" ht="24" customHeight="1" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -2096,7 +2115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
+    <row r="11" s="2" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -2112,7 +2131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
+    <row r="13" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -2120,7 +2139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="16" spans="1:2">
+    <row r="14" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -2188,7 +2207,7 @@
       <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2204,7 +2223,7 @@
       <c r="A24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2212,7 +2231,7 @@
       <c r="A25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2264,7 +2283,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" ht="16" spans="1:2">
+    <row r="32" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A32" s="4" t="s">
         <v>61</v>
       </c>
@@ -2272,7 +2291,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" ht="16" spans="1:2">
+    <row r="33" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A33" s="4" t="s">
         <v>63</v>
       </c>
@@ -2288,15 +2307,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
+    <row r="35" ht="16" spans="1:2">
       <c r="A35" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
+    <row r="36" ht="16" spans="1:2">
       <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
@@ -2304,19 +2323,19 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" s="3" customFormat="1" ht="16" spans="1:2">
+    <row r="37" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A37" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" s="3" customFormat="1" ht="16" spans="1:2">
+    <row r="38" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A38" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="8" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2448,19 +2467,19 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" ht="15.5" spans="1:2">
+    <row r="55" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A55" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="56" ht="15.5" spans="1:2">
+    <row r="56" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A56" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2496,35 +2515,35 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" ht="16" spans="1:2">
+    <row r="61" ht="15.5" spans="1:2">
       <c r="A61" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
+    <row r="62" ht="15.5" spans="1:2">
       <c r="A62" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="63" ht="15.5" spans="1:2">
+    <row r="63" ht="16" spans="1:2">
       <c r="A63" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="64" ht="15.5" spans="1:2">
+    <row r="64" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A64" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="8" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2617,7 +2636,7 @@
       </c>
     </row>
     <row r="76" ht="15.5" spans="1:2">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B76" t="s">
@@ -2625,47 +2644,47 @@
       </c>
     </row>
     <row r="77" ht="15.5" spans="1:2">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B77" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="78" ht="16" spans="1:2">
-      <c r="A78" s="11" t="s">
+    <row r="78" ht="15.5" spans="1:2">
+      <c r="A78" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="79" ht="15.5" spans="1:2">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="12" t="s">
         <v>155</v>
       </c>
       <c r="B79" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="80" ht="15.5" spans="1:2">
-      <c r="A80" s="11" t="s">
+    <row r="80" ht="16" spans="1:2">
+      <c r="A80" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="8" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="81" ht="15.5" spans="1:2">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="82" ht="15.5" spans="1:2">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="12" t="s">
         <v>161</v>
       </c>
       <c r="B82" t="s">
@@ -2673,15 +2692,15 @@
       </c>
     </row>
     <row r="83" ht="15.5" spans="1:2">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="13" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="84" ht="15.5" spans="1:2">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="12" t="s">
         <v>165</v>
       </c>
       <c r="B84" t="s">
@@ -2689,7 +2708,7 @@
       </c>
     </row>
     <row r="85" ht="15.5" spans="1:2">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="12" t="s">
         <v>167</v>
       </c>
       <c r="B85" t="s">
@@ -2697,7 +2716,7 @@
       </c>
     </row>
     <row r="86" ht="15.5" spans="1:2">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="12" t="s">
         <v>169</v>
       </c>
       <c r="B86" t="s">
@@ -2705,7 +2724,7 @@
       </c>
     </row>
     <row r="87" ht="15.5" spans="1:2">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="12" t="s">
         <v>171</v>
       </c>
       <c r="B87" t="s">
@@ -2713,7 +2732,7 @@
       </c>
     </row>
     <row r="88" ht="15.5" spans="1:2">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="12" t="s">
         <v>173</v>
       </c>
       <c r="B88" t="s">
@@ -2721,7 +2740,7 @@
       </c>
     </row>
     <row r="89" ht="15.5" spans="1:2">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="12" t="s">
         <v>175</v>
       </c>
       <c r="B89" t="s">
@@ -2729,7 +2748,7 @@
       </c>
     </row>
     <row r="90" ht="15.5" spans="1:2">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="12" t="s">
         <v>177</v>
       </c>
       <c r="B90" t="s">
@@ -2737,7 +2756,7 @@
       </c>
     </row>
     <row r="91" ht="15.5" spans="1:2">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="12" t="s">
         <v>179</v>
       </c>
       <c r="B91" t="s">
@@ -2745,7 +2764,7 @@
       </c>
     </row>
     <row r="92" ht="15.5" spans="1:2">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="12" t="s">
         <v>181</v>
       </c>
       <c r="B92" t="s">
@@ -2753,7 +2772,7 @@
       </c>
     </row>
     <row r="93" ht="15.5" spans="1:2">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="12" t="s">
         <v>183</v>
       </c>
       <c r="B93" t="s">
@@ -2761,7 +2780,7 @@
       </c>
     </row>
     <row r="94" ht="15.5" spans="1:2">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B94" t="s">
@@ -2769,7 +2788,7 @@
       </c>
     </row>
     <row r="95" ht="15.5" spans="1:2">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="12" t="s">
         <v>187</v>
       </c>
       <c r="B95" t="s">
@@ -2777,7 +2796,7 @@
       </c>
     </row>
     <row r="96" ht="15.5" spans="1:2">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="12" t="s">
         <v>189</v>
       </c>
       <c r="B96" t="s">
@@ -2785,7 +2804,7 @@
       </c>
     </row>
     <row r="97" ht="15.5" spans="1:2">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="12" t="s">
         <v>191</v>
       </c>
       <c r="B97" t="s">
@@ -2793,7 +2812,7 @@
       </c>
     </row>
     <row r="98" ht="15.5" spans="1:2">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B98" t="s">
@@ -2801,7 +2820,7 @@
       </c>
     </row>
     <row r="99" ht="15.5" spans="1:2">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="12" t="s">
         <v>195</v>
       </c>
       <c r="B99" t="s">
@@ -2809,7 +2828,7 @@
       </c>
     </row>
     <row r="100" ht="15.5" spans="1:2">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="12" t="s">
         <v>197</v>
       </c>
       <c r="B100" t="s">
@@ -2817,7 +2836,7 @@
       </c>
     </row>
     <row r="101" ht="15.5" spans="1:2">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="12" t="s">
         <v>199</v>
       </c>
       <c r="B101" t="s">
@@ -2825,7 +2844,7 @@
       </c>
     </row>
     <row r="102" ht="15.5" spans="1:2">
-      <c r="A102" s="11" t="s">
+      <c r="A102" s="12" t="s">
         <v>201</v>
       </c>
       <c r="B102" t="s">
@@ -2833,7 +2852,7 @@
       </c>
     </row>
     <row r="103" ht="15.5" spans="1:2">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="12" t="s">
         <v>203</v>
       </c>
       <c r="B103" t="s">
@@ -2841,7 +2860,7 @@
       </c>
     </row>
     <row r="104" ht="15.5" spans="1:2">
-      <c r="A104" s="11" t="s">
+      <c r="A104" s="12" t="s">
         <v>205</v>
       </c>
       <c r="B104" t="s">
@@ -2849,7 +2868,7 @@
       </c>
     </row>
     <row r="105" ht="15.5" spans="1:2">
-      <c r="A105" s="11" t="s">
+      <c r="A105" s="12" t="s">
         <v>207</v>
       </c>
       <c r="B105" t="s">
@@ -2857,31 +2876,31 @@
       </c>
     </row>
     <row r="106" ht="15.5" spans="1:2">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="12" t="s">
         <v>209</v>
       </c>
       <c r="B106" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
     </row>
     <row r="107" ht="15.5" spans="1:2">
-      <c r="A107" s="11" t="s">
-        <v>210</v>
+      <c r="A107" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="B107" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108" ht="15.5" spans="1:2">
-      <c r="A108" s="11" t="s">
-        <v>212</v>
+      <c r="A108" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="B108" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" ht="15.5" spans="1:2">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="12" t="s">
         <v>214</v>
       </c>
       <c r="B109" t="s">
@@ -2889,818 +2908,897 @@
       </c>
     </row>
     <row r="110" ht="15.5" spans="1:2">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="12" t="s">
         <v>216</v>
       </c>
       <c r="B110" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="111" ht="15.5" spans="1:2">
+      <c r="A111" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="112" ht="15.5" spans="1:2">
+      <c r="A112" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="113" ht="15.5" spans="1:1">
+      <c r="A113" s="4" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="34" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="50" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="33" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="1" priority="49" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="32" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="2" priority="48" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="31" stopIfTrue="1" operator="equal" text="//">
+    <cfRule type="beginsWith" dxfId="3" priority="47" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A1,LEN("//"))="//"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="beginsWith" dxfId="3" priority="181" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A14,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="182" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A14,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="183" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A14,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="184" stopIfTrue="1">
-      <formula>LEN(TRIM(A14))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="4" priority="185" stopIfTrue="1">
+  <conditionalFormatting sqref="A13">
+    <cfRule type="beginsWith" dxfId="3" priority="197" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A13,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="198" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A13,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="199" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A13,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="200" stopIfTrue="1">
+      <formula>LEN(TRIM(A13))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="expression" dxfId="4" priority="201" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="186">
-      <formula>LEN(TRIM(B14))&gt;0</formula>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="202">
+      <formula>LEN(TRIM(B13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="beginsWith" dxfId="3" priority="163" stopIfTrue="1" operator="equal" text="//">
+    <cfRule type="beginsWith" dxfId="3" priority="179" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A16,LEN("//"))="//"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="164" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="2" priority="180" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A16,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="165" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="1" priority="181" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A16,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="166" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="182" stopIfTrue="1">
       <formula>LEN(TRIM(A16))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:E16">
+    <cfRule type="expression" dxfId="4" priority="183" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="184">
+      <formula>LEN(TRIM(B16))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="beginsWith" dxfId="3" priority="175" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A20,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="176" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A20,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="177" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A20,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="178" stopIfTrue="1">
+      <formula>LEN(TRIM(A20))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="16" stopIfTrue="1">
+      <formula>LEN(TRIM(A21))&gt;0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="15" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A21,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="14" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A21,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="13" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A21,LEN("//"))="//"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="beginsWith" dxfId="3" priority="169" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A22,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="170" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A22,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="171" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A22,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="172" stopIfTrue="1">
+      <formula>LEN(TRIM(A22))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:E22">
+    <cfRule type="expression" dxfId="4" priority="173" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="174">
+      <formula>LEN(TRIM(B22))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="8" stopIfTrue="1">
+      <formula>LEN(TRIM(A23))&gt;0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A23,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A23,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="5" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A23,LEN("//"))="//"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="10">
+      <formula>LEN(TRIM(B23))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:E23">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="12">
+      <formula>LEN(TRIM(C23))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="11" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="beginsWith" dxfId="3" priority="159" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A24,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="160" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A24,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="161" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A24,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="162" stopIfTrue="1">
+      <formula>LEN(TRIM(A24))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="expression" dxfId="4" priority="103" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="104">
+      <formula>LEN(TRIM(B24))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:E24">
     <cfRule type="expression" dxfId="4" priority="167" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="168">
-      <formula>LEN(TRIM(B16))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
-    <cfRule type="beginsWith" dxfId="3" priority="159" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A20,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="160" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A20,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="161" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A20,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="162" stopIfTrue="1">
-      <formula>LEN(TRIM(A20))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="4" priority="129" stopIfTrue="1">
+      <formula>LEN(TRIM(C24))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="beginsWith" dxfId="3" priority="153" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A25,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="154" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A25,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="155" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A25,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="156" stopIfTrue="1">
+      <formula>LEN(TRIM(A25))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="expression" dxfId="4" priority="101" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="130">
-      <formula>LEN(TRIM(B20))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:E20">
-    <cfRule type="expression" dxfId="4" priority="237" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="238">
-      <formula>LEN(TRIM(C20))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="beginsWith" dxfId="3" priority="153" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A21,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="154" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A21,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="155" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A21,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="156" stopIfTrue="1">
-      <formula>LEN(TRIM(A21))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:E21">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="102">
+      <formula>LEN(TRIM(B25))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:E25">
     <cfRule type="expression" dxfId="4" priority="157" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="158">
-      <formula>LEN(TRIM(B21))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="beginsWith" dxfId="3" priority="143" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A22,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="144" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A22,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="145" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A22,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="146" stopIfTrue="1">
-      <formula>LEN(TRIM(A22))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="4" priority="87" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="88">
-      <formula>LEN(TRIM(B22))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:E22">
+      <formula>LEN(TRIM(C25))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="beginsWith" dxfId="3" priority="147" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A26,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="148" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A26,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="149" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A26,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="150" stopIfTrue="1">
+      <formula>LEN(TRIM(A26))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:E26">
     <cfRule type="expression" dxfId="4" priority="151" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="152">
-      <formula>LEN(TRIM(C22))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
+      <formula>LEN(TRIM(B26))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="4" priority="143" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="144">
+      <formula>LEN(TRIM(B27))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
     <cfRule type="beginsWith" dxfId="3" priority="137" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A23,LEN("//"))="//"</formula>
+      <formula>LEFT(A30,LEN("//"))="//"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="138" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A23,LEN("nexial.scope."))="nexial.scope."</formula>
+      <formula>LEFT(A30,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="139" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A23,LEN("nexial."))="nexial."</formula>
+      <formula>LEFT(A30,LEN("nexial."))="nexial."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="0" priority="140" stopIfTrue="1">
-      <formula>LEN(TRIM(A23))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="4" priority="85" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="86">
-      <formula>LEN(TRIM(B23))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23:E23">
+      <formula>LEN(TRIM(A30))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:E30">
     <cfRule type="expression" dxfId="4" priority="141" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="142">
-      <formula>LEN(TRIM(C23))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="beginsWith" dxfId="3" priority="131" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A24,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="132" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A24,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="133" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A24,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="134" stopIfTrue="1">
-      <formula>LEN(TRIM(A24))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:E24">
-    <cfRule type="expression" dxfId="4" priority="135" stopIfTrue="1">
+      <formula>LEN(TRIM(B30))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="beginsWith" dxfId="3" priority="133" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A31,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="134" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A31,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="135" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A31,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="136" stopIfTrue="1">
+      <formula>LEN(TRIM(A31))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="beginsWith" dxfId="3" priority="127" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A32,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="128" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A32,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="129" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A32,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="130" stopIfTrue="1">
+      <formula>LEN(TRIM(A32))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:E32">
+    <cfRule type="expression" dxfId="4" priority="131" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="136">
-      <formula>LEN(TRIM(B24))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="4" priority="127" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="128">
-      <formula>LEN(TRIM(B25))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="132">
+      <formula>LEN(TRIM(B32))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
     <cfRule type="beginsWith" dxfId="3" priority="121" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A28,LEN("//"))="//"</formula>
+      <formula>LEFT(A33,LEN("//"))="//"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="122" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A28,LEN("nexial.scope."))="nexial.scope."</formula>
+      <formula>LEFT(A33,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="123" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A28,LEN("nexial."))="nexial."</formula>
+      <formula>LEFT(A33,LEN("nexial."))="nexial."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="0" priority="124" stopIfTrue="1">
-      <formula>LEN(TRIM(A28))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:E28">
+      <formula>LEN(TRIM(A33))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:E33">
     <cfRule type="expression" dxfId="4" priority="125" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="126">
-      <formula>LEN(TRIM(B28))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
+      <formula>LEN(TRIM(B33))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
     <cfRule type="beginsWith" dxfId="3" priority="117" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A29,LEN("//"))="//"</formula>
+      <formula>LEFT(A34,LEN("//"))="//"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="118" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A29,LEN("nexial.scope."))="nexial.scope."</formula>
+      <formula>LEFT(A34,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="119" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A29,LEN("nexial."))="nexial."</formula>
+      <formula>LEFT(A34,LEN("nexial."))="nexial."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="0" priority="120" stopIfTrue="1">
-      <formula>LEN(TRIM(A29))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="beginsWith" dxfId="3" priority="111" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A30,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="112" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A30,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="113" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A30,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="114" stopIfTrue="1">
-      <formula>LEN(TRIM(A30))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:E30">
-    <cfRule type="expression" dxfId="4" priority="115" stopIfTrue="1">
+      <formula>LEN(TRIM(A34))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="expression" dxfId="4" priority="223" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="116">
-      <formula>LEN(TRIM(B30))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="224">
+      <formula>LEN(TRIM(B34))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="beginsWith" dxfId="3" priority="113" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A35,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="114" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A35,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="115" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A35,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="116" stopIfTrue="1">
+      <formula>LEN(TRIM(A35))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="expression" dxfId="4" priority="217" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="218">
+      <formula>LEN(TRIM(B35))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="beginsWith" dxfId="3" priority="109" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A36,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="110" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A36,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="111" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A36,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="112" stopIfTrue="1">
+      <formula>LEN(TRIM(A36))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="expression" dxfId="4" priority="211" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="212">
+      <formula>LEN(TRIM(B36))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
     <cfRule type="beginsWith" dxfId="3" priority="105" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A31,LEN("//"))="//"</formula>
+      <formula>LEFT(A40,LEN("//"))="//"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="106" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A31,LEN("nexial.scope."))="nexial.scope."</formula>
+      <formula>LEFT(A40,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="107" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A31,LEN("nexial."))="nexial."</formula>
+      <formula>LEFT(A40,LEN("nexial."))="nexial."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="0" priority="108" stopIfTrue="1">
-      <formula>LEN(TRIM(A31))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31:E31">
-    <cfRule type="expression" dxfId="4" priority="109" stopIfTrue="1">
+      <formula>LEN(TRIM(A40))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="beginsWith" dxfId="3" priority="189" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A56,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="190" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A56,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="191" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A56,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="192" stopIfTrue="1">
+      <formula>LEN(TRIM(A56))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="beginsWith" dxfId="3" priority="91" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A63,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="92" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A63,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="93" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A63,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="94" stopIfTrue="1">
+      <formula>LEN(TRIM(A63))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="expression" dxfId="4" priority="95" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="110">
-      <formula>LEN(TRIM(B31))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="beginsWith" dxfId="3" priority="101" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A32,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="102" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A32,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="103" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A32,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="104" stopIfTrue="1">
-      <formula>LEN(TRIM(A32))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="96">
+      <formula>LEN(TRIM(B63))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="beginsWith" dxfId="3" priority="85" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A64,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="86" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A64,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="87" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A64,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="88" stopIfTrue="1">
+      <formula>LEN(TRIM(A64))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
+    <cfRule type="expression" dxfId="4" priority="83" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="84">
+      <formula>LEN(TRIM(B64))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64:E64">
+    <cfRule type="expression" dxfId="4" priority="89" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="90">
+      <formula>LEN(TRIM(C64))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="beginsWith" dxfId="3" priority="75" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A69,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="76" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A69,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="77" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A69,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="78" stopIfTrue="1">
+      <formula>LEN(TRIM(A69))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="beginsWith" dxfId="3" priority="71" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A70,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="72" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A70,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="73" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A70,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="74" stopIfTrue="1">
+      <formula>LEN(TRIM(A70))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73">
+    <cfRule type="beginsWith" dxfId="3" priority="63" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A73,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="64" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A73,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="65" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A73,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="66" stopIfTrue="1">
+      <formula>LEN(TRIM(A73))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B80">
+    <cfRule type="expression" dxfId="4" priority="37" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="38">
+      <formula>LEN(TRIM(B80))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A108">
+    <cfRule type="beginsWith" dxfId="3" priority="29" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A108,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="30" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A108,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="31" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A108,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="32" stopIfTrue="1">
+      <formula>LEN(TRIM(A108))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A111">
+    <cfRule type="beginsWith" dxfId="3" priority="25" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A111,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="26" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A111,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="27" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A111,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="28" stopIfTrue="1">
+      <formula>LEN(TRIM(A111))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112">
+    <cfRule type="beginsWith" dxfId="3" priority="17" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A112,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A112,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="19" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A112,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="20" stopIfTrue="1">
+      <formula>LEN(TRIM(A112))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A113">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>LEN(TRIM(A113))&gt;0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A113,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A113,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="1" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A113,LEN("//"))="//"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A7">
+    <cfRule type="beginsWith" dxfId="3" priority="235" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A2,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="236" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A2,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="237" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A2,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="238" stopIfTrue="1">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:A9">
+    <cfRule type="beginsWith" dxfId="3" priority="267" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A8,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="268" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A8,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="269" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A8,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="270" stopIfTrue="1">
+      <formula>LEN(TRIM(A8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A19">
+    <cfRule type="beginsWith" dxfId="3" priority="255" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A17,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="256" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A17,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="257" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A17,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="258" stopIfTrue="1">
+      <formula>LEN(TRIM(A17))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:A29">
+    <cfRule type="beginsWith" dxfId="3" priority="243" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A27,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="244" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A27,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="245" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A27,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="246" stopIfTrue="1">
+      <formula>LEN(TRIM(A27))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:A38">
+    <cfRule type="beginsWith" dxfId="3" priority="203" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A37,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="204" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A37,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="205" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A37,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="206" stopIfTrue="1">
+      <formula>LEN(TRIM(A37))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:A58">
+    <cfRule type="beginsWith" dxfId="3" priority="185" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A57,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="186" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A57,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="187" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A57,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="188" stopIfTrue="1">
+      <formula>LEN(TRIM(A57))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:A62">
+    <cfRule type="beginsWith" dxfId="3" priority="97" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A59,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="98" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A59,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="99" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A59,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="100" stopIfTrue="1">
+      <formula>LEN(TRIM(A59))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:A68">
+    <cfRule type="beginsWith" dxfId="3" priority="79" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A65,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="80" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A65,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="81" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A65,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="82" stopIfTrue="1">
+      <formula>LEN(TRIM(A65))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:A72">
+    <cfRule type="beginsWith" dxfId="3" priority="67" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A71,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="68" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A71,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="69" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A71,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="70" stopIfTrue="1">
+      <formula>LEN(TRIM(A71))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74:A78">
+    <cfRule type="beginsWith" dxfId="3" priority="51" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A74,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="52" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A74,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A74,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="54" stopIfTrue="1">
+      <formula>LEN(TRIM(A74))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79:A80">
+    <cfRule type="beginsWith" dxfId="3" priority="43" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A79,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="44" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A79,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="45" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A79,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="46" stopIfTrue="1">
+      <formula>LEN(TRIM(A79))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81:A105">
+    <cfRule type="beginsWith" dxfId="3" priority="39" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A81,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="40" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A81,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A81,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="42" stopIfTrue="1">
+      <formula>LEN(TRIM(A81))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106:A107">
+    <cfRule type="beginsWith" dxfId="3" priority="33" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A106,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="34" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A106,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A106,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="36" stopIfTrue="1">
+      <formula>LEN(TRIM(A106))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A109:A110">
+    <cfRule type="beginsWith" dxfId="3" priority="21" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A109,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="22" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A109,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A109,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="24" stopIfTrue="1">
+      <formula>LEN(TRIM(A109))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B7">
+    <cfRule type="expression" dxfId="4" priority="239" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="240">
+      <formula>LEN(TRIM(B2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B9">
+    <cfRule type="expression" dxfId="4" priority="271" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="272">
+      <formula>LEN(TRIM(B8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B21">
+    <cfRule type="expression" dxfId="4" priority="145" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="146">
+      <formula>LEN(TRIM(B20))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:B38">
     <cfRule type="expression" dxfId="4" priority="207" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="208">
-      <formula>LEN(TRIM(B32))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="beginsWith" dxfId="3" priority="97" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A33,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="98" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A33,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="99" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A33,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="100" stopIfTrue="1">
-      <formula>LEN(TRIM(A33))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="4" priority="201" stopIfTrue="1">
+      <formula>LEN(TRIM(B37))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:E7">
+    <cfRule type="expression" dxfId="4" priority="241" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="202">
-      <formula>LEN(TRIM(B33))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="beginsWith" dxfId="3" priority="93" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A34,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="94" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A34,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="95" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A34,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="96" stopIfTrue="1">
-      <formula>LEN(TRIM(A34))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="4" priority="195" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="242">
+      <formula>LEN(TRIM(C2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:E12 C8:E9 B14:E15">
+    <cfRule type="expression" dxfId="4" priority="277" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="196">
-      <formula>LEN(TRIM(B34))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="beginsWith" dxfId="3" priority="89" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A38,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="90" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A38,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="91" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A38,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="92" stopIfTrue="1">
-      <formula>LEN(TRIM(A38))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="beginsWith" dxfId="3" priority="173" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A54,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="174" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A54,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="175" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A54,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="176" stopIfTrue="1">
-      <formula>LEN(TRIM(A54))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61">
-    <cfRule type="beginsWith" dxfId="3" priority="75" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A61,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="76" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A61,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="77" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A61,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="78" stopIfTrue="1">
-      <formula>LEN(TRIM(A61))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
-    <cfRule type="expression" dxfId="4" priority="79" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="278">
+      <formula>LEN(TRIM(B8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:A12 A14:A15">
+    <cfRule type="beginsWith" dxfId="3" priority="273" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A10,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="274" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A10,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="275" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A10,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="276" stopIfTrue="1">
+      <formula>LEN(TRIM(A10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:E19">
+    <cfRule type="expression" dxfId="4" priority="259" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="80">
-      <formula>LEN(TRIM(B61))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
-    <cfRule type="beginsWith" dxfId="3" priority="69" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A62,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="70" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A62,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="71" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A62,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="72" stopIfTrue="1">
-      <formula>LEN(TRIM(A62))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
-    <cfRule type="expression" dxfId="4" priority="67" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="260">
+      <formula>LEN(TRIM(B17))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:E21">
+    <cfRule type="expression" dxfId="4" priority="253" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="68">
-      <formula>LEN(TRIM(B62))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62:E62">
-    <cfRule type="expression" dxfId="4" priority="73" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="254">
+      <formula>LEN(TRIM(C20))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:E27 B31:E31 B28:E29">
+    <cfRule type="expression" dxfId="4" priority="247" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="74">
-      <formula>LEN(TRIM(C62))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
-    <cfRule type="beginsWith" dxfId="3" priority="59" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A67,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="60" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A67,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="61" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A67,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="62" stopIfTrue="1">
-      <formula>LEN(TRIM(A67))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
-    <cfRule type="beginsWith" dxfId="3" priority="55" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A68,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="56" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A68,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="57" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A68,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="58" stopIfTrue="1">
-      <formula>LEN(TRIM(A68))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="beginsWith" dxfId="3" priority="47" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A71,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="48" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A71,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="49" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A71,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="50" stopIfTrue="1">
-      <formula>LEN(TRIM(A71))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78">
-    <cfRule type="expression" dxfId="4" priority="21" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="248">
+      <formula>LEN(TRIM(B27))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:E38">
+    <cfRule type="expression" dxfId="4" priority="209" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="22">
-      <formula>LEN(TRIM(B78))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A106">
-    <cfRule type="beginsWith" dxfId="3" priority="13" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A106,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="14" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A106,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="15" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A106,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="16" stopIfTrue="1">
-      <formula>LEN(TRIM(A106))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A109">
-    <cfRule type="beginsWith" dxfId="3" priority="9" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A109,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A109,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A109,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="12" stopIfTrue="1">
-      <formula>LEN(TRIM(A109))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A110">
-    <cfRule type="beginsWith" dxfId="3" priority="1" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A110,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A110,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A110,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>LEN(TRIM(A110))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A8">
-    <cfRule type="beginsWith" dxfId="3" priority="219" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A2,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="220" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A2,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="221" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A2,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="222" stopIfTrue="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A10">
-    <cfRule type="beginsWith" dxfId="3" priority="251" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A9,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="252" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A9,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="253" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A9,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="254" stopIfTrue="1">
-      <formula>LEN(TRIM(A9))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A19">
-    <cfRule type="beginsWith" dxfId="3" priority="239" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A17,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="240" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A17,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="241" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A17,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="242" stopIfTrue="1">
-      <formula>LEN(TRIM(A17))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A27">
-    <cfRule type="beginsWith" dxfId="3" priority="227" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A25,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="228" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A25,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="229" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A25,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="230" stopIfTrue="1">
-      <formula>LEN(TRIM(A25))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:A36">
-    <cfRule type="beginsWith" dxfId="3" priority="187" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A35,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="188" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A35,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="189" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A35,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="190" stopIfTrue="1">
-      <formula>LEN(TRIM(A35))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:A56">
-    <cfRule type="beginsWith" dxfId="3" priority="169" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A55,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="170" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A55,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="171" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A55,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="172" stopIfTrue="1">
-      <formula>LEN(TRIM(A55))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:A60">
-    <cfRule type="beginsWith" dxfId="3" priority="81" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A57,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="82" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A57,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="83" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A57,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="84" stopIfTrue="1">
-      <formula>LEN(TRIM(A57))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:A66">
-    <cfRule type="beginsWith" dxfId="3" priority="63" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A63,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="64" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A63,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="65" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A63,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="66" stopIfTrue="1">
-      <formula>LEN(TRIM(A63))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69:A70">
-    <cfRule type="beginsWith" dxfId="3" priority="51" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A69,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="52" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A69,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A69,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="54" stopIfTrue="1">
-      <formula>LEN(TRIM(A69))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A76">
-    <cfRule type="beginsWith" dxfId="3" priority="35" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A72,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="36" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A72,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="37" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A72,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="38" stopIfTrue="1">
-      <formula>LEN(TRIM(A72))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77:A78">
-    <cfRule type="beginsWith" dxfId="3" priority="27" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A77,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="28" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A77,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A77,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="30" stopIfTrue="1">
-      <formula>LEN(TRIM(A77))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A79:A103">
-    <cfRule type="beginsWith" dxfId="3" priority="23" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A79,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A79,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="25" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A79,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="26" stopIfTrue="1">
-      <formula>LEN(TRIM(A79))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A104:A105">
-    <cfRule type="beginsWith" dxfId="3" priority="17" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A104,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A104,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="19" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A104,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="20" stopIfTrue="1">
-      <formula>LEN(TRIM(A104))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A107:A108">
-    <cfRule type="beginsWith" dxfId="3" priority="5" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A107,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A107,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A107,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>LEN(TRIM(A107))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B8">
-    <cfRule type="expression" dxfId="4" priority="223" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="224">
-      <formula>LEN(TRIM(B2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B10">
-    <cfRule type="expression" dxfId="4" priority="255" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="256">
-      <formula>LEN(TRIM(B9))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B36">
-    <cfRule type="expression" dxfId="4" priority="191" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="192">
-      <formula>LEN(TRIM(B35))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:E8">
-    <cfRule type="expression" dxfId="4" priority="225" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="226">
-      <formula>LEN(TRIM(C2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:E13 B15:E15 C9:E10">
-    <cfRule type="expression" dxfId="4" priority="261" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="262">
-      <formula>LEN(TRIM(B9))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:A13 A15">
-    <cfRule type="beginsWith" dxfId="3" priority="257" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A11,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="258" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A11,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="259" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A11,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="260" stopIfTrue="1">
-      <formula>LEN(TRIM(A11))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:E19">
-    <cfRule type="expression" dxfId="4" priority="243" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="244">
-      <formula>LEN(TRIM(B17))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:E25 B29:E29 B26:E27">
-    <cfRule type="expression" dxfId="4" priority="231" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="232">
-      <formula>LEN(TRIM(B25))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35:E36">
-    <cfRule type="expression" dxfId="4" priority="193" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="194">
-      <formula>LEN(TRIM(C35))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37 A39:A53">
-    <cfRule type="beginsWith" dxfId="3" priority="177" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A37,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="178" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A37,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="179" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A37,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="180" stopIfTrue="1">
-      <formula>LEN(TRIM(A37))&gt;0</formula>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="210">
+      <formula>LEN(TRIM(C37))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39 A41:A55">
+    <cfRule type="beginsWith" dxfId="3" priority="193" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A39,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="194" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A39,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="195" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A39,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="196" stopIfTrue="1">
+      <formula>LEN(TRIM(A39))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tests/artifact/data/UI-Settings.data.xlsx
+++ b/tests/artifact/data/UI-Settings.data.xlsx
@@ -2124,8 +2124,8 @@
   <sheetPr/>
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>

--- a/tests/artifact/data/UI-Settings.data.xlsx
+++ b/tests/artifact/data/UI-Settings.data.xlsx
@@ -14,7 +14,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="255">
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nexial.delayBetweenStepsMs</t>
+    </r>
+  </si>
   <si>
     <t>login.changeServer</t>
   </si>
@@ -40,18 +52,6 @@
     <t>//input[@placeholder='Password']</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>crypt:d0a382ddd1185c583b59f4825423e1eae6eda68194ea3aa6</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>crypt:0db89afc616782385ecd997f4e5511e6e2d6315103adea76</t>
-  </si>
-  <si>
     <t>button.submit</t>
   </si>
   <si>
@@ -64,6 +64,18 @@
     <t>//*[text()='Login Success!']</t>
   </si>
   <si>
+    <t>title.locator</t>
+  </si>
+  <si>
+    <t>//*[text()='Welcome Accion!']</t>
+  </si>
+  <si>
+    <t>title.header</t>
+  </si>
+  <si>
+    <t>Welcome Accion</t>
+  </si>
+  <si>
     <t>Org.locator</t>
   </si>
   <si>
@@ -73,7 +85,7 @@
     <t>Org.Name</t>
   </si>
   <si>
-    <t>IndianInstitute</t>
+    <t>User</t>
   </si>
   <si>
     <t>org.hamburger</t>
@@ -106,6 +118,12 @@
     <t>//select[@id="gs-t1-select-10"]</t>
   </si>
   <si>
+    <t>org.General.DataFormatValue</t>
+  </si>
+  <si>
+    <t>dd-mm-yyyy,yyyy-mm-dd,mm-dd-yyyy</t>
+  </si>
+  <si>
     <t>org.General.AppLanguageField</t>
   </si>
   <si>
@@ -136,12 +154,24 @@
     <t>//ul[@role="tablist"]/li/a[text()='Transaction']</t>
   </si>
   <si>
+    <t>org.Transaction.PaymentModeValue</t>
+  </si>
+  <si>
+    <t>cash,bank,credit</t>
+  </si>
+  <si>
     <t>org.Transaction.PaymentMode</t>
   </si>
   <si>
     <t>//select[@id="gs-t2-select-10"]</t>
   </si>
   <si>
+    <t>org.Transaction.TaxModeValue</t>
+  </si>
+  <si>
+    <t>None,GST,VAT,GST &amp; VAT</t>
+  </si>
+  <si>
     <t>org.Transaction.TaxMode</t>
   </si>
   <si>
@@ -226,10 +256,10 @@
     <t>//div/input[@class="custom-file-input"]</t>
   </si>
   <si>
-    <t>Org,ImportData.Button</t>
-  </si>
-  <si>
-    <t>//button/span[text()=' Import Data']</t>
+    <t>Org.ImportData.Button</t>
+  </si>
+  <si>
+    <t>//button[@type="submit"][span=' Import Data']</t>
   </si>
   <si>
     <t>Org.ImportData.Tallypage</t>
@@ -344,6 +374,420 @@
   </si>
   <si>
     <t>https://gnukhata.org/</t>
+  </si>
+  <si>
+    <t>ManageUser.InviteButton</t>
+  </si>
+  <si>
+    <t>//button[span='Invite User']</t>
+  </si>
+  <si>
+    <t>ManageUser.Users.Label</t>
+  </si>
+  <si>
+    <t>//h5[text()='Users']</t>
+  </si>
+  <si>
+    <t>ManageUser.Invitations.Label</t>
+  </si>
+  <si>
+    <t>//h5[text()='Invitations']</t>
+  </si>
+  <si>
+    <t>Users.Table</t>
+  </si>
+  <si>
+    <t>//table[@role="table"]/parent::div/h5[text()='Users']</t>
+  </si>
+  <si>
+    <t>Invitations.Table</t>
+  </si>
+  <si>
+    <t>//table[@role="table"]/parent::div/h5[text()='Invitations']</t>
+  </si>
+  <si>
+    <t>org.ManageUser</t>
+  </si>
+  <si>
+    <t>//ul[@role="tablist"]/li/a[text()='Manage Users']</t>
+  </si>
+  <si>
+    <t>Org.ExportData</t>
+  </si>
+  <si>
+    <t>//ul[@role="tablist"]/li/a[text()='Export Data']</t>
+  </si>
+  <si>
+    <t>org.Export.Para1</t>
+  </si>
+  <si>
+    <t>//div[text()=' This menu will enable you to export organisation data, that is, all its accounts and records in these accounts in two formats: ']</t>
+  </si>
+  <si>
+    <t>org.Export.li1</t>
+  </si>
+  <si>
+    <t>//ul/li[text()='Microsoft Excel Open XML Spreadsheet (.xslx) [legacy]']</t>
+  </si>
+  <si>
+    <t>org.Export.li2</t>
+  </si>
+  <si>
+    <t>//ul/li[text()='Json (.json)']</t>
+  </si>
+  <si>
+    <t>org.Export.Para2</t>
+  </si>
+  <si>
+    <t>//div[text()=' Click on any of the available "Export" buttons to start the export. Please do not reload or close the window while the export process is on. A download window will pop up when export is done. You can open or save the file. ']</t>
+  </si>
+  <si>
+    <t>org.Export.LegacyButton</t>
+  </si>
+  <si>
+    <t>//button[@label='Export (Legacy)']</t>
+  </si>
+  <si>
+    <t>org.Export.JsonButton</t>
+  </si>
+  <si>
+    <t>//button[@label='Export (Json)']</t>
+  </si>
+  <si>
+    <t>Windows.SavesAs.Edit</t>
+  </si>
+  <si>
+    <t>//*[@ClassName="Edit" and @ControlType="ControlType.Edit" and @Name="File name:"]</t>
+  </si>
+  <si>
+    <t>Windows.SavesAs.SaveButton</t>
+  </si>
+  <si>
+    <t>//*[@ClassName="Button" and @ControlType="ControlType.Button" and @Name="Save"]</t>
+  </si>
+  <si>
+    <t>ChangeOrg</t>
+  </si>
+  <si>
+    <t>//a[@role="menuitem"][text()=' Change Org ']</t>
+  </si>
+  <si>
+    <t>CreateOrg.Button</t>
+  </si>
+  <si>
+    <t>//button[text()='Create Org']</t>
+  </si>
+  <si>
+    <t>CreateOrg.Name</t>
+  </si>
+  <si>
+    <t>//input[@placeholder="Organisation Name"]</t>
+  </si>
+  <si>
+    <t>CreateOrg.State</t>
+  </si>
+  <si>
+    <t>//input[@aria-autocomplete="list"]</t>
+  </si>
+  <si>
+    <t>CreateOrg.LoginButton</t>
+  </si>
+  <si>
+    <t>//button[span='Create &amp; Login']</t>
+  </si>
+  <si>
+    <t>State.Value</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Select.State</t>
+  </si>
+  <si>
+    <t>//ul[@role="listbox"][@class="vs__dropdown-menu"]/li[contains(text(),' ')]</t>
+  </si>
+  <si>
+    <t>Org.Organization</t>
+  </si>
+  <si>
+    <t>//ul[@role="tablist"]/li/a[text()='Organisation']</t>
+  </si>
+  <si>
+    <t>Org.GeneralDetails</t>
+  </si>
+  <si>
+    <t>//div[text()='General']</t>
+  </si>
+  <si>
+    <t>Org.ContactDetails</t>
+  </si>
+  <si>
+    <t>//div[text()='Contact Details']</t>
+  </si>
+  <si>
+    <t>Organization.Name</t>
+  </si>
+  <si>
+    <t>//div[@class="card-body"]/img/parent::div/descendant::div/legend[text()='Name']/parent::div/div/input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.Img</t>
+  </si>
+  <si>
+    <t>//div[@class="card-body"]/img[@src="img/gk.png"]</t>
+  </si>
+  <si>
+    <t>Organization.inputImg</t>
+  </si>
+  <si>
+    <t>//input[@accept="image/jpeg, image/png"]</t>
+  </si>
+  <si>
+    <t>Organization.Website</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='Website']/parent::div/div/input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.Email</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='Email']/parent::div/div/input[@type="email"]</t>
+  </si>
+  <si>
+    <t>Organization.Address</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='Address']/parent::div/div/input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.City</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='City']/parent::div/div/input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.State</t>
+  </si>
+  <si>
+    <t>//Select[@class="custom-select custom-select-sm"]</t>
+  </si>
+  <si>
+    <t>Organization.Country</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='Country']/parent::div/div/input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.Pincode</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='Pincode']/parent::div/div/input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.Phone</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='Phone']/parent::div/descendant::input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.Fax</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='Fax']/parent::div/div/input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.IFSC</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='IFSC Code']/parent::div/descendant::input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.IFSCDetails</t>
+  </si>
+  <si>
+    <t>//div[@id="ifsc-info___BV_modal_body_"]/preceding-sibling::header/h5[text()='IFSC Details']</t>
+  </si>
+  <si>
+    <t>Organization.BankName</t>
+  </si>
+  <si>
+    <t>(//div/legend[text()='Name']/parent::div/descendant::input[@type="text"])[2]</t>
+  </si>
+  <si>
+    <t>Organization.Branch</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='Branch']/parent::div/descendant::input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.AccountNumber</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='Account Number']/parent::div/descendant::input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.GSTIN</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='GSTIN']/parent::div/descendant::input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.Validate&amp;Autofill</t>
+  </si>
+  <si>
+    <t>//button[text()=' Validate &amp; Autofill ']</t>
+  </si>
+  <si>
+    <t>GSTINValidate.Form</t>
+  </si>
+  <si>
+    <t>//h5[@id="gstin-validation-modal___BV_modal_title_"]</t>
+  </si>
+  <si>
+    <t>ValidateButton.Close</t>
+  </si>
+  <si>
+    <t>//button[text()='×']</t>
+  </si>
+  <si>
+    <t>Organization.PAN</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='PAN']/parent::div/descendant::input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.ServiceTax</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='ServiceTax Number']/parent::div/descendant::input[@type="text"]</t>
+  </si>
+  <si>
+    <t>Organization.CessButton</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='CESS']/parent::div/descendant::button[span='CESS']</t>
+  </si>
+  <si>
+    <t>Organization.CessNumber</t>
+  </si>
+  <si>
+    <t>//div/legend[text()='CESS']/parent::div/descendant::input[@type="number"]</t>
+  </si>
+  <si>
+    <t>Organization.CessAdd</t>
+  </si>
+  <si>
+    <t>//footer[@id="cess___BV_modal_footer_"]/button[text()='Add']</t>
+  </si>
+  <si>
+    <t>Organization.CessValue</t>
+  </si>
+  <si>
+    <t>//button[@class="btn btn-danger btn-sm"]/parent::div/b[text()=10]</t>
+  </si>
+  <si>
+    <t>Organization.CessCancel</t>
+  </si>
+  <si>
+    <t>//footer[@id="cess___BV_modal_footer_"]/button[span='Cancel']</t>
+  </si>
+  <si>
+    <t>Organization.CessValue2</t>
+  </si>
+  <si>
+    <t>//button[@class="btn btn-danger btn-sm"]/parent::div/b[text()=20]</t>
+  </si>
+  <si>
+    <t>Organization.CessValue3</t>
+  </si>
+  <si>
+    <t>//button[@class="btn btn-danger btn-sm"]/parent::div/b[text()=30]</t>
+  </si>
+  <si>
+    <t>CessValue3.delete</t>
+  </si>
+  <si>
+    <t>//div/b[text()=30]/parent::div/button[@class="btn btn-danger btn-sm"]</t>
+  </si>
+  <si>
+    <t>Organization.SaveChanges</t>
+  </si>
+  <si>
+    <t>//button[@type="submit"]</t>
+  </si>
+  <si>
+    <t>Organization.DeleteOrg</t>
+  </si>
+  <si>
+    <t>//button[span='Delete Organisation']</t>
+  </si>
+  <si>
+    <t>DeleteOrg.ConfirmationMsg</t>
+  </si>
+  <si>
+    <t>//div[text()='Confirm delete company ? This action is Irreversable. We recommend to backup company data before deleting']</t>
+  </si>
+  <si>
+    <t>DeleteOrg.OkButton</t>
+  </si>
+  <si>
+    <t>//button[@class="btn btn-danger"][text()='OK']</t>
+  </si>
+  <si>
+    <t>DeleteOrg.CancelButton</t>
+  </si>
+  <si>
+    <t>//button[@class="btn btn-secondary"][text()='Cancel']</t>
+  </si>
+  <si>
+    <t>Validate.button</t>
+  </si>
+  <si>
+    <t>//button[@title="validate"]</t>
+  </si>
+  <si>
+    <t>Autofill.button</t>
+  </si>
+  <si>
+    <t>//button[span='Auto fill']</t>
+  </si>
+  <si>
+    <t>Windows.filename</t>
+  </si>
+  <si>
+    <t>Windows.Open</t>
+  </si>
+  <si>
+    <t>//*[@ClassName="Button" and @ControlType="ControlType.Button" and @Name="Open"]</t>
+  </si>
+  <si>
+    <t>Confirmation.msg</t>
+  </si>
+  <si>
+    <t>//div[text()='Confirm update company ? ']</t>
+  </si>
+  <si>
+    <t>Confirmation.Cancel</t>
+  </si>
+  <si>
+    <t>Confirmation.OK</t>
+  </si>
+  <si>
+    <t>Popup.Message</t>
+  </si>
+  <si>
+    <t>Organisation.GSTIN.errors</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,"invalid-feedback")]</t>
+  </si>
+  <si>
+    <t>Organisation.Pan.errors</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,"d-block invalid-feedback")]</t>
   </si>
 </sst>
 </file>
@@ -356,7 +800,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +841,12 @@
       <b/>
       <sz val="12"/>
       <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -879,137 +1329,137 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1028,6 +1478,9 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1040,10 +1493,22 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1102,27 +1567,13 @@
   <dxfs count="23">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="1"/>
-        <strike val="0"/>
-        <color theme="0" tint="-0.349986266670736"/>
+        <b val="1"/>
+        <i val="0"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.249946592608417"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.599963377788629"/>
+          <bgColor theme="0" tint="-0.14996795556505"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1142,11 +1593,25 @@
       <font>
         <b val="1"/>
         <i val="0"/>
-        <color theme="1"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.249946592608417"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14996795556505"/>
+          <bgColor theme="4" tint="0.599963377788629"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="1"/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.349986266670736"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1657,993 +2122,2007 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="29.9090909090909" customWidth="1"/>
     <col min="2" max="2" width="255.636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
+      <c r="B1" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+    </row>
+    <row r="5" s="1" customFormat="1" ht="24" customHeight="1" spans="1:2">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7" t="s">
+    </row>
+    <row r="8" customFormat="1" ht="16" spans="1:3">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" customFormat="1" ht="16" spans="1:3">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7" t="s">
+    </row>
+    <row r="12" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="7" t="s">
+    </row>
+    <row r="14" s="2" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="16" spans="1:2">
-      <c r="A14" s="4" t="s">
+      <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="7" t="s">
+    </row>
+    <row r="15" s="3" customFormat="1" ht="16" spans="1:2">
+      <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A15" s="4" t="s">
+      <c r="B15" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="7" t="s">
+    </row>
+    <row r="32" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A32" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" ht="16" spans="1:2">
-      <c r="A32" s="4" t="s">
+      <c r="B32" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="7" t="s">
+    </row>
+    <row r="33" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A33" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" ht="16" spans="1:2">
-      <c r="A33" s="4" t="s">
+      <c r="B33" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="7" t="s">
+    </row>
+    <row r="34" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A34" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" ht="16" spans="1:2">
-      <c r="A34" s="4" t="s">
+      <c r="B34" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="9" t="s">
+    </row>
+    <row r="36" ht="16" spans="1:2">
+      <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A36" s="4" t="s">
+      <c r="B36" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="7" t="s">
+    </row>
+    <row r="37" ht="16" spans="1:2">
+      <c r="A37" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" s="3" customFormat="1" ht="16" spans="1:2">
-      <c r="A37" s="4" t="s">
+      <c r="B37" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="3" t="s">
+    </row>
+    <row r="38" ht="16" spans="1:2">
+      <c r="A38" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" s="3" customFormat="1" ht="16" spans="1:2">
-      <c r="A38" s="4" t="s">
+      <c r="B38" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="3" t="s">
+    </row>
+    <row r="39" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A39" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" s="3" customFormat="1" ht="16" spans="1:2">
-      <c r="A39" s="4" t="s">
+      <c r="B39" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="3" t="s">
+    </row>
+    <row r="40" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A40" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="40" s="3" customFormat="1" ht="16" spans="1:2">
-      <c r="A40" s="4" t="s">
+      <c r="B40" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="41" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A41" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="42" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="43" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A43" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="44" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A44" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="45" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="46" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A46" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="47" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A47" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="48" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A48" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="49" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A49" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="50" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A50" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="51" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A51" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="52" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A52" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="53" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A53" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="54" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A54" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="3" t="s">
+    </row>
+    <row r="55" s="3" customFormat="1" ht="16" spans="1:2">
+      <c r="A55" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="55" ht="15.5" spans="1:2">
-      <c r="A55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B55" t="s">
+    </row>
+    <row r="56" s="3" customFormat="1" ht="16" spans="1:2">
+      <c r="A56" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="B56" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" s="3" customFormat="1" ht="16" spans="1:2">
+      <c r="A57" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" s="3" customFormat="1" ht="16" spans="1:2">
+      <c r="A58" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" ht="15.5" spans="1:2">
+      <c r="A59" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" ht="15.5" spans="1:2">
+      <c r="A60" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" ht="15.5" spans="1:2">
+      <c r="A61" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" ht="15.5" spans="1:2">
+      <c r="A62" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" ht="15.5" spans="1:2">
+      <c r="A63" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" ht="15.5" spans="1:2">
+      <c r="A64" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" ht="16" spans="1:2">
+      <c r="A65" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A66" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" ht="15.5" spans="1:2">
+      <c r="A67" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" ht="15.5" spans="1:2">
+      <c r="A68" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" ht="15.5" spans="1:2">
+      <c r="A69" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" ht="15.5" spans="1:2">
+      <c r="A70" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" ht="15.5" spans="1:2">
+      <c r="A71" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" ht="15.5" spans="1:2">
+      <c r="A72" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" ht="15.5" spans="1:2">
+      <c r="A73" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" ht="15.5" spans="1:2">
+      <c r="A74" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" ht="15.5" spans="1:2">
+      <c r="A75" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" ht="15.5" spans="1:2">
+      <c r="A76" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" ht="15.5" spans="1:2">
+      <c r="A77" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" ht="15.5" spans="1:2">
+      <c r="A78" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" ht="15.5" spans="1:2">
+      <c r="A79" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" ht="15.5" spans="1:2">
+      <c r="A80" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" ht="15.5" spans="1:2">
+      <c r="A81" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" ht="16" spans="1:2">
+      <c r="A82" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" ht="15.5" spans="1:2">
+      <c r="A83" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" ht="15.5" spans="1:2">
+      <c r="A84" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" ht="15.5" spans="1:2">
+      <c r="A85" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" ht="15.5" spans="1:2">
+      <c r="A86" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" ht="15.5" spans="1:2">
+      <c r="A87" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" ht="15.5" spans="1:2">
+      <c r="A88" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" ht="15.5" spans="1:2">
+      <c r="A89" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" ht="15.5" spans="1:2">
+      <c r="A90" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" ht="15.5" spans="1:2">
+      <c r="A91" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" ht="15.5" spans="1:2">
+      <c r="A92" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" ht="15.5" spans="1:2">
+      <c r="A93" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" ht="15.5" spans="1:2">
+      <c r="A94" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" ht="15.5" spans="1:2">
+      <c r="A95" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" ht="15.5" spans="1:2">
+      <c r="A96" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B96" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" ht="15.5" spans="1:2">
+      <c r="A97" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98" ht="15.5" spans="1:2">
+      <c r="A98" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B98" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" ht="15.5" spans="1:2">
+      <c r="A99" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B99" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" ht="15.5" spans="1:2">
+      <c r="A100" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B100" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" ht="15.5" spans="1:2">
+      <c r="A101" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B101" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" ht="15.5" spans="1:2">
+      <c r="A102" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B102" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" ht="15.5" spans="1:2">
+      <c r="A103" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B103" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" ht="15.5" spans="1:2">
+      <c r="A104" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B104" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" ht="15.5" spans="1:2">
+      <c r="A105" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B105" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" ht="15.5" spans="1:2">
+      <c r="A106" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B106" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" ht="15.5" spans="1:2">
+      <c r="A107" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B107" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="108" ht="15.5" spans="1:2">
+      <c r="A108" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B108" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" ht="15.5" spans="1:2">
+      <c r="A109" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B109" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="110" ht="15.5" spans="1:2">
+      <c r="A110" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B110" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="111" ht="15.5" spans="1:2">
+      <c r="A111" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B111" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112" ht="15.5" spans="1:2">
+      <c r="A112" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B112" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="113" ht="15.5" spans="1:2">
+      <c r="A113" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B113" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114" ht="15.5" spans="1:2">
+      <c r="A114" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B114" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" ht="15.5" spans="1:2">
+      <c r="A115" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B115" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="116" ht="15.5" spans="1:2">
+      <c r="A116" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B116" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="117" ht="15.5" spans="1:2">
+      <c r="A117" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B117" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="118" ht="15.5" spans="1:2">
+      <c r="A118" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B118" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="119" ht="15.5" spans="1:2">
+      <c r="A119" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B119" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="120" ht="15.5" spans="1:2">
+      <c r="A120" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B120" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="121" ht="15.5" spans="1:2">
+      <c r="A121" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B121" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="122" ht="15.5" spans="1:2">
+      <c r="A122" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B122" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="123" ht="15.5" spans="1:2">
+      <c r="A123" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B123" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="124" ht="15.5" spans="1:2">
+      <c r="A124" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B124" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="125" ht="15.5" spans="1:2">
+      <c r="A125" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="126" ht="15.5" spans="1:2">
+      <c r="A126" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B126" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="127" ht="15.5" spans="1:2">
+      <c r="A127" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B127" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="128" ht="15.5" spans="1:2">
+      <c r="A128" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B128" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129" ht="15.5" spans="1:2">
+      <c r="A129" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B129" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="130" ht="15.5" spans="1:2">
+      <c r="A130" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>254</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="beginsWith" dxfId="0" priority="97" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A14,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="98" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A14,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="99" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A14,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="100" stopIfTrue="1">
-      <formula>LEN(TRIM(A14))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="4" priority="101" stopIfTrue="1">
+  <conditionalFormatting sqref="A1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="78" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="77" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="76" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="75" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A1,LEN("//"))="//"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="beginsWith" dxfId="3" priority="225" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A15,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="226" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A15,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="227" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A15,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="228" stopIfTrue="1">
+      <formula>LEN(TRIM(A15))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="expression" dxfId="4" priority="229" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="102">
-      <formula>LEN(TRIM(B14))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="beginsWith" dxfId="0" priority="79" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A16,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="80" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A16,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="81" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A16,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="82" stopIfTrue="1">
-      <formula>LEN(TRIM(A16))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:E16">
-    <cfRule type="expression" dxfId="4" priority="83" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="230">
+      <formula>LEN(TRIM(B15))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="beginsWith" dxfId="3" priority="207" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A18,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="208" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A18,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="209" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A18,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="210" stopIfTrue="1">
+      <formula>LEN(TRIM(A18))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:E18">
+    <cfRule type="expression" dxfId="4" priority="211" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="84">
-      <formula>LEN(TRIM(B16))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
-    <cfRule type="beginsWith" dxfId="0" priority="75" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A20,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="76" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A20,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="77" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A20,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="78" stopIfTrue="1">
-      <formula>LEN(TRIM(A20))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="4" priority="45" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="212">
+      <formula>LEN(TRIM(B18))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="beginsWith" dxfId="3" priority="203" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A22,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="204" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A22,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="205" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A22,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="206" stopIfTrue="1">
+      <formula>LEN(TRIM(A22))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="beginsWith" dxfId="3" priority="41" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A23,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="42" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A23,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="43" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A23,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="44" stopIfTrue="1">
+      <formula>LEN(TRIM(A23))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="beginsWith" dxfId="3" priority="197" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A24,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="198" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A24,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="199" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A24,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="200" stopIfTrue="1">
+      <formula>LEN(TRIM(A24))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:E24">
+    <cfRule type="expression" dxfId="4" priority="201" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="46">
-      <formula>LEN(TRIM(B20))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:E20">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="202">
+      <formula>LEN(TRIM(B24))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="beginsWith" dxfId="3" priority="33" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A25,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="34" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A25,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A25,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="36" stopIfTrue="1">
+      <formula>LEN(TRIM(A25))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="expression" dxfId="4" priority="37" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="38">
+      <formula>LEN(TRIM(B25))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:E25">
+    <cfRule type="expression" dxfId="4" priority="39" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="40">
+      <formula>LEN(TRIM(C25))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="beginsWith" dxfId="3" priority="187" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A26,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="188" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A26,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="189" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A26,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="190" stopIfTrue="1">
+      <formula>LEN(TRIM(A26))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="expression" dxfId="4" priority="131" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="132">
+      <formula>LEN(TRIM(B26))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:E26">
+    <cfRule type="expression" dxfId="4" priority="195" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="196">
+      <formula>LEN(TRIM(C26))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="beginsWith" dxfId="3" priority="181" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A27,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="182" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A27,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="183" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A27,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="184" stopIfTrue="1">
+      <formula>LEN(TRIM(A27))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="4" priority="129" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="130">
+      <formula>LEN(TRIM(B27))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:E27">
+    <cfRule type="expression" dxfId="4" priority="185" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="186">
+      <formula>LEN(TRIM(C27))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="beginsWith" dxfId="3" priority="175" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A28,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="176" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A28,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="177" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A28,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="178" stopIfTrue="1">
+      <formula>LEN(TRIM(A28))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:E28">
+    <cfRule type="expression" dxfId="4" priority="179" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="180">
+      <formula>LEN(TRIM(B28))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="expression" dxfId="4" priority="171" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="172">
+      <formula>LEN(TRIM(B29))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="beginsWith" dxfId="3" priority="165" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A32,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="166" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A32,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="167" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A32,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="168" stopIfTrue="1">
+      <formula>LEN(TRIM(A32))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:E32">
+    <cfRule type="expression" dxfId="4" priority="169" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="170">
+      <formula>LEN(TRIM(B32))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="beginsWith" dxfId="3" priority="161" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A33,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="162" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A33,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="163" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A33,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="164" stopIfTrue="1">
+      <formula>LEN(TRIM(A33))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="beginsWith" dxfId="3" priority="155" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A34,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="156" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A34,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="157" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A34,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="158" stopIfTrue="1">
+      <formula>LEN(TRIM(A34))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:E34">
+    <cfRule type="expression" dxfId="4" priority="159" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="160">
+      <formula>LEN(TRIM(B34))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="beginsWith" dxfId="3" priority="149" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A35,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="150" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A35,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="151" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A35,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="152" stopIfTrue="1">
+      <formula>LEN(TRIM(A35))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:E35">
     <cfRule type="expression" dxfId="4" priority="153" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="154">
-      <formula>LEN(TRIM(C20))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="beginsWith" dxfId="0" priority="69" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A21,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="70" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A21,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="71" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A21,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="72" stopIfTrue="1">
-      <formula>LEN(TRIM(A21))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:E21">
-    <cfRule type="expression" dxfId="4" priority="73" stopIfTrue="1">
+      <formula>LEN(TRIM(B35))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="beginsWith" dxfId="3" priority="145" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A36,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="146" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A36,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="147" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A36,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="148" stopIfTrue="1">
+      <formula>LEN(TRIM(A36))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="expression" dxfId="4" priority="251" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="74">
-      <formula>LEN(TRIM(B21))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="beginsWith" dxfId="0" priority="59" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A22,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="60" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A22,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="61" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A22,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="62" stopIfTrue="1">
-      <formula>LEN(TRIM(A22))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="252">
+      <formula>LEN(TRIM(B36))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="beginsWith" dxfId="3" priority="141" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A37,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="142" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A37,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="143" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A37,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="144" stopIfTrue="1">
+      <formula>LEN(TRIM(A37))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="4" priority="245" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="4">
-      <formula>LEN(TRIM(B22))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:E22">
-    <cfRule type="expression" dxfId="4" priority="67" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="246">
+      <formula>LEN(TRIM(B37))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="beginsWith" dxfId="3" priority="137" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A38,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="138" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A38,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="139" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A38,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="140" stopIfTrue="1">
+      <formula>LEN(TRIM(A38))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="4" priority="239" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="68">
-      <formula>LEN(TRIM(C22))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="beginsWith" dxfId="0" priority="53" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A23,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="54" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A23,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="55" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A23,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="56" stopIfTrue="1">
-      <formula>LEN(TRIM(A23))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="2">
-      <formula>LEN(TRIM(B23))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23:E23">
-    <cfRule type="expression" dxfId="4" priority="57" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="58">
-      <formula>LEN(TRIM(C23))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="beginsWith" dxfId="0" priority="47" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A24,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="48" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A24,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="49" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A24,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="50" stopIfTrue="1">
-      <formula>LEN(TRIM(A24))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:E24">
-    <cfRule type="expression" dxfId="4" priority="51" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="52">
-      <formula>LEN(TRIM(B24))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="4" priority="43" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="44">
-      <formula>LEN(TRIM(B25))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A28,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A28,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A28,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="40" stopIfTrue="1">
-      <formula>LEN(TRIM(A28))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:E28">
-    <cfRule type="expression" dxfId="4" priority="41" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="42">
-      <formula>LEN(TRIM(B28))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="beginsWith" dxfId="0" priority="33" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A29,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="34" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A29,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="35" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A29,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="36" stopIfTrue="1">
-      <formula>LEN(TRIM(A29))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="beginsWith" dxfId="0" priority="27" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A30,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="28" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A30,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="29" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A30,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="30" stopIfTrue="1">
-      <formula>LEN(TRIM(A30))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:E30">
-    <cfRule type="expression" dxfId="4" priority="31" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="32">
-      <formula>LEN(TRIM(B30))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="beginsWith" dxfId="0" priority="21" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A31,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="22" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A31,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="23" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A31,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="24" stopIfTrue="1">
-      <formula>LEN(TRIM(A31))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31:E31">
-    <cfRule type="expression" dxfId="4" priority="25" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="26">
-      <formula>LEN(TRIM(B31))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="beginsWith" dxfId="0" priority="17" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A32,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="18" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A32,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="19" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A32,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="20" stopIfTrue="1">
-      <formula>LEN(TRIM(A32))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="240">
+      <formula>LEN(TRIM(B38))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="beginsWith" dxfId="3" priority="133" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A42,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="134" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A42,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="135" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A42,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="136" stopIfTrue="1">
+      <formula>LEN(TRIM(A42))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="beginsWith" dxfId="3" priority="217" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A58,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="218" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A58,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="219" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A58,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="220" stopIfTrue="1">
+      <formula>LEN(TRIM(A58))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="beginsWith" dxfId="3" priority="119" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A65,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="120" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A65,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="121" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A65,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="122" stopIfTrue="1">
+      <formula>LEN(TRIM(A65))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
     <cfRule type="expression" dxfId="4" priority="123" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="124">
-      <formula>LEN(TRIM(B32))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A33,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A33,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A33,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="16" stopIfTrue="1">
-      <formula>LEN(TRIM(A33))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
+      <formula>LEN(TRIM(B65))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="beginsWith" dxfId="3" priority="113" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A66,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="114" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A66,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="115" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A66,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="116" stopIfTrue="1">
+      <formula>LEN(TRIM(A66))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="expression" dxfId="4" priority="111" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="112">
+      <formula>LEN(TRIM(B66))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66:E66">
     <cfRule type="expression" dxfId="4" priority="117" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="118">
-      <formula>LEN(TRIM(B33))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A34,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="10" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A34,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="11" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A34,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="12" stopIfTrue="1">
-      <formula>LEN(TRIM(A34))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="4" priority="111" stopIfTrue="1">
+      <formula>LEN(TRIM(C66))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="beginsWith" dxfId="3" priority="103" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A71,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="104" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A71,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="105" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A71,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="106" stopIfTrue="1">
+      <formula>LEN(TRIM(A71))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="beginsWith" dxfId="3" priority="99" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A72,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="100" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A72,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="101" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A72,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="102" stopIfTrue="1">
+      <formula>LEN(TRIM(A72))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75">
+    <cfRule type="beginsWith" dxfId="3" priority="91" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A75,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="92" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A75,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="93" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A75,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="94" stopIfTrue="1">
+      <formula>LEN(TRIM(A75))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="expression" dxfId="4" priority="65" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="112">
-      <formula>LEN(TRIM(B34))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="beginsWith" dxfId="0" priority="5" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A38,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="6" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A38,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A38,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="8" stopIfTrue="1">
-      <formula>LEN(TRIM(A38))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="beginsWith" dxfId="0" priority="89" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A54,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="90" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A54,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="91" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A54,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="92" stopIfTrue="1">
-      <formula>LEN(TRIM(A54))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
-    <cfRule type="beginsWith" dxfId="0" priority="85" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A55,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="86" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A55,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="87" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A55,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="88" stopIfTrue="1">
-      <formula>LEN(TRIM(A55))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A8">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="138" stopIfTrue="1">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="137" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="136" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="135" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A1,LEN("//"))="//"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A10">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="170" stopIfTrue="1">
-      <formula>LEN(TRIM(A9))&gt;0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="169" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A9,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="168" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A9,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="167" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A9,LEN("//"))="//"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A19">
-    <cfRule type="beginsWith" dxfId="0" priority="155" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A17,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="156" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A17,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="157" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A17,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="158" stopIfTrue="1">
-      <formula>LEN(TRIM(A17))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A27">
-    <cfRule type="beginsWith" dxfId="0" priority="143" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A25,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="144" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A25,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="145" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A25,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="146" stopIfTrue="1">
-      <formula>LEN(TRIM(A25))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:A36">
-    <cfRule type="beginsWith" dxfId="0" priority="103" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A35,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="104" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A35,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="105" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A35,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="106" stopIfTrue="1">
-      <formula>LEN(TRIM(A35))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B8">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="140">
-      <formula>LEN(TRIM(B1))&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="139" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="66">
+      <formula>LEN(TRIM(B82))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="beginsWith" dxfId="3" priority="13" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A84,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="14" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A84,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="15" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A84,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="16" stopIfTrue="1">
+      <formula>LEN(TRIM(A84))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A113">
+    <cfRule type="beginsWith" dxfId="3" priority="25" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A113,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="26" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A113,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="27" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A113,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="28" stopIfTrue="1">
+      <formula>LEN(TRIM(A113))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120">
+    <cfRule type="beginsWith" dxfId="3" priority="17" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A120,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A120,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="19" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A120,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="20" stopIfTrue="1">
+      <formula>LEN(TRIM(A120))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123">
+    <cfRule type="beginsWith" dxfId="3" priority="57" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A123,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="58" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A123,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="59" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A123,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="60" stopIfTrue="1">
+      <formula>LEN(TRIM(A123))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126">
+    <cfRule type="beginsWith" dxfId="3" priority="1" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A126,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A126,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A126,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>LEN(TRIM(A126))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A127">
+    <cfRule type="beginsWith" dxfId="3" priority="53" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A127,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="54" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A127,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="55" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A127,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="56" stopIfTrue="1">
+      <formula>LEN(TRIM(A127))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128">
+    <cfRule type="beginsWith" dxfId="3" priority="45" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A128,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="46" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A128,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="47" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A128,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="48" stopIfTrue="1">
+      <formula>LEN(TRIM(A128))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A129">
+    <cfRule type="beginsWith" dxfId="3" priority="9" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A129,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A129,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A129,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="12" stopIfTrue="1">
+      <formula>LEN(TRIM(A129))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130">
+    <cfRule type="beginsWith" dxfId="3" priority="5" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A130,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A130,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A130,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="8" stopIfTrue="1">
+      <formula>LEN(TRIM(A130))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A9">
+    <cfRule type="beginsWith" dxfId="3" priority="263" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A2,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="264" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A2,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="265" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A2,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="266" stopIfTrue="1">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:A11">
+    <cfRule type="beginsWith" dxfId="3" priority="295" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A10,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="296" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A10,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="297" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A10,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="298" stopIfTrue="1">
+      <formula>LEN(TRIM(A10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:A21">
+    <cfRule type="beginsWith" dxfId="3" priority="283" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A19,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="284" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A19,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="285" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A19,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="286" stopIfTrue="1">
+      <formula>LEN(TRIM(A19))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:A31">
+    <cfRule type="beginsWith" dxfId="3" priority="271" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A29,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="272" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A29,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="273" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A29,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="274" stopIfTrue="1">
+      <formula>LEN(TRIM(A29))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:A40">
+    <cfRule type="beginsWith" dxfId="3" priority="231" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A39,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="232" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A39,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="233" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A39,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="234" stopIfTrue="1">
+      <formula>LEN(TRIM(A39))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:A60">
+    <cfRule type="beginsWith" dxfId="3" priority="213" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A59,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="214" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A59,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="215" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A59,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="216" stopIfTrue="1">
+      <formula>LEN(TRIM(A59))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:A70">
+    <cfRule type="beginsWith" dxfId="3" priority="107" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A67,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="108" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A67,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="109" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A67,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="110" stopIfTrue="1">
+      <formula>LEN(TRIM(A67))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73:A74">
+    <cfRule type="beginsWith" dxfId="3" priority="95" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A73,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="96" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A73,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="97" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A73,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="98" stopIfTrue="1">
+      <formula>LEN(TRIM(A73))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76:A80">
+    <cfRule type="beginsWith" dxfId="3" priority="79" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A76,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="80" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A76,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="81" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A76,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="82" stopIfTrue="1">
+      <formula>LEN(TRIM(A76))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81:A82">
+    <cfRule type="beginsWith" dxfId="3" priority="71" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A81,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="72" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A81,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="73" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A81,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="74" stopIfTrue="1">
+      <formula>LEN(TRIM(A81))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A114:A115">
+    <cfRule type="beginsWith" dxfId="3" priority="21" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A114,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="22" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A114,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A114,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="24" stopIfTrue="1">
+      <formula>LEN(TRIM(A114))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A121:A122">
+    <cfRule type="beginsWith" dxfId="3" priority="61" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A121,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="62" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A121,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="63" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A121,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="64" stopIfTrue="1">
+      <formula>LEN(TRIM(A121))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:A125">
+    <cfRule type="beginsWith" dxfId="3" priority="49" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A124,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="50" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A124,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="51" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A124,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="52" stopIfTrue="1">
+      <formula>LEN(TRIM(A124))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B9">
+    <cfRule type="expression" dxfId="4" priority="267" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B10">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="172">
-      <formula>LEN(TRIM(B9))&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="171" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="268">
+      <formula>LEN(TRIM(B2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:B11">
+    <cfRule type="expression" dxfId="4" priority="299" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B36">
-    <cfRule type="expression" dxfId="4" priority="107" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="300">
+      <formula>LEN(TRIM(B10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:B23">
+    <cfRule type="expression" dxfId="4" priority="173" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="108">
-      <formula>LEN(TRIM(B35))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E8">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="142">
-      <formula>LEN(TRIM(C1))&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="141" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="174">
+      <formula>LEN(TRIM(B22))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:B40">
+    <cfRule type="expression" dxfId="4" priority="235" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:E13 C9:E10 B15:E15">
-    <cfRule type="expression" dxfId="4" priority="177" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="236">
+      <formula>LEN(TRIM(B39))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:E9">
+    <cfRule type="expression" dxfId="4" priority="269" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="178">
-      <formula>LEN(TRIM(B9))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:A13 A15">
-    <cfRule type="beginsWith" dxfId="0" priority="173" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A11,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="174" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A11,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="175" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A11,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="176" stopIfTrue="1">
-      <formula>LEN(TRIM(A11))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:E19">
-    <cfRule type="expression" dxfId="4" priority="159" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="270">
+      <formula>LEN(TRIM(C2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:E14 B16:E17 C10:E11">
+    <cfRule type="expression" dxfId="4" priority="305" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="160">
-      <formula>LEN(TRIM(B17))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:E25 B26:E27 B29:E29">
-    <cfRule type="expression" dxfId="4" priority="147" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="306">
+      <formula>LEN(TRIM(B10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:A14 A16:A17">
+    <cfRule type="beginsWith" dxfId="3" priority="301" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A12,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="302" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A12,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="303" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A12,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="304" stopIfTrue="1">
+      <formula>LEN(TRIM(A12))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:E21">
+    <cfRule type="expression" dxfId="4" priority="287" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="148">
-      <formula>LEN(TRIM(B25))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35:E36">
-    <cfRule type="expression" dxfId="4" priority="109" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="288">
+      <formula>LEN(TRIM(B19))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:E23">
+    <cfRule type="expression" dxfId="4" priority="281" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="110">
-      <formula>LEN(TRIM(C35))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37 A39:A53">
-    <cfRule type="beginsWith" dxfId="0" priority="93" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A37,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="94" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A37,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="95" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A37,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="96" stopIfTrue="1">
-      <formula>LEN(TRIM(A37))&gt;0</formula>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="282">
+      <formula>LEN(TRIM(C22))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:E29 B30:E31 B33:E33">
+    <cfRule type="expression" dxfId="4" priority="275" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="276">
+      <formula>LEN(TRIM(B29))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:E40">
+    <cfRule type="expression" dxfId="4" priority="237" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="238">
+      <formula>LEN(TRIM(C39))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41 A43:A57">
+    <cfRule type="beginsWith" dxfId="3" priority="221" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A41,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="222" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A41,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="223" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A41,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="224" stopIfTrue="1">
+      <formula>LEN(TRIM(A41))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:A64 A83">
+    <cfRule type="beginsWith" dxfId="3" priority="125" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A61,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="126" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A61,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="127" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A61,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="128" stopIfTrue="1">
+      <formula>LEN(TRIM(A61))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85:A112 A116:A119">
+    <cfRule type="beginsWith" dxfId="3" priority="67" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A85,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="68" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A85,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="69" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A85,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="70" stopIfTrue="1">
+      <formula>LEN(TRIM(A85))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tests/artifact/data/UI-Settings.data.xlsx
+++ b/tests/artifact/data/UI-Settings.data.xlsx
@@ -67,13 +67,13 @@
     <t>title.locator</t>
   </si>
   <si>
-    <t>//*[text()='Welcome Accion!']</t>
+    <t>//*[text()='Welcome Accion']</t>
   </si>
   <si>
     <t>title.header</t>
   </si>
   <si>
-    <t>Welcome Accion!</t>
+    <t>Welcome Accion</t>
   </si>
   <si>
     <t>Org.locator</t>
@@ -85,7 +85,7 @@
     <t>Org.Name</t>
   </si>
   <si>
-    <t>User</t>
+    <t>TestingProduct</t>
   </si>
   <si>
     <t>org.hamburger</t>
@@ -2124,8 +2124,8 @@
   <sheetPr/>
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>

--- a/tests/artifact/data/UI-Settings.data.xlsx
+++ b/tests/artifact/data/UI-Settings.data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="254">
   <si>
     <r>
       <rPr>
@@ -67,13 +67,10 @@
     <t>title.locator</t>
   </si>
   <si>
-    <t>//*[text()='Welcome Accion!']</t>
+    <t>//*[text()='Welcome Accion']</t>
   </si>
   <si>
     <t>title.header</t>
-  </si>
-  <si>
-    <t>Welcome Accion</t>
   </si>
   <si>
     <t>Org.locator</t>
@@ -2124,8 +2121,8 @@
   <sheetPr/>
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
@@ -2204,976 +2201,976 @@
         <v>15</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A34" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="36" ht="16" spans="1:2">
       <c r="A36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="37" ht="16" spans="1:2">
       <c r="A37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="38" ht="16" spans="1:2">
       <c r="A38" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A40" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="41" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="42" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A42" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="43" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A43" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="44" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A44" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="45" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A45" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="46" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A46" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="47" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A47" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="48" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A48" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="49" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A49" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="50" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A50" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="51" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A51" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="52" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A52" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="53" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A53" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="54" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A54" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="55" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A55" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="56" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A56" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="57" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A57" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="58" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A58" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="59" ht="15.5" spans="1:2">
       <c r="A59" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
         <v>115</v>
-      </c>
-      <c r="B59" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="60" ht="15.5" spans="1:2">
       <c r="A60" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
         <v>117</v>
-      </c>
-      <c r="B60" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="61" ht="15.5" spans="1:2">
       <c r="A61" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
         <v>119</v>
-      </c>
-      <c r="B61" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="62" ht="15.5" spans="1:2">
       <c r="A62" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
         <v>121</v>
-      </c>
-      <c r="B62" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="63" ht="15.5" spans="1:2">
       <c r="A63" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
         <v>123</v>
-      </c>
-      <c r="B63" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="64" ht="15.5" spans="1:2">
       <c r="A64" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
         <v>125</v>
-      </c>
-      <c r="B64" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="65" ht="16" spans="1:2">
       <c r="A65" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A66" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="67" ht="15.5" spans="1:2">
       <c r="A67" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s">
         <v>131</v>
-      </c>
-      <c r="B67" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="68" ht="15.5" spans="1:2">
       <c r="A68" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
         <v>133</v>
-      </c>
-      <c r="B68" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="69" ht="15.5" spans="1:2">
       <c r="A69" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
         <v>135</v>
-      </c>
-      <c r="B69" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="70" ht="15.5" spans="1:2">
       <c r="A70" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" t="s">
         <v>137</v>
-      </c>
-      <c r="B70" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="71" ht="15.5" spans="1:2">
       <c r="A71" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
         <v>139</v>
-      </c>
-      <c r="B71" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="72" ht="15.5" spans="1:2">
       <c r="A72" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
         <v>141</v>
-      </c>
-      <c r="B72" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="73" ht="15.5" spans="1:2">
       <c r="A73" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" t="s">
         <v>143</v>
-      </c>
-      <c r="B73" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="74" ht="15.5" spans="1:2">
       <c r="A74" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" t="s">
         <v>145</v>
-      </c>
-      <c r="B74" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="75" ht="15.5" spans="1:2">
       <c r="A75" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" t="s">
         <v>147</v>
-      </c>
-      <c r="B75" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="76" ht="15.5" spans="1:2">
       <c r="A76" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" t="s">
         <v>149</v>
-      </c>
-      <c r="B76" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="77" ht="15.5" spans="1:2">
       <c r="A77" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" t="s">
         <v>151</v>
-      </c>
-      <c r="B77" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="78" ht="15.5" spans="1:2">
       <c r="A78" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" t="s">
         <v>153</v>
-      </c>
-      <c r="B78" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="79" ht="15.5" spans="1:2">
       <c r="A79" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" t="s">
         <v>155</v>
-      </c>
-      <c r="B79" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="80" ht="15.5" spans="1:2">
       <c r="A80" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" t="s">
         <v>157</v>
-      </c>
-      <c r="B80" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="81" ht="15.5" spans="1:2">
       <c r="A81" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" t="s">
         <v>159</v>
-      </c>
-      <c r="B81" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="82" ht="16" spans="1:2">
       <c r="A82" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="83" ht="15.5" spans="1:2">
       <c r="A83" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" t="s">
         <v>163</v>
-      </c>
-      <c r="B83" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="84" ht="15.5" spans="1:2">
       <c r="A84" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" t="s">
         <v>165</v>
-      </c>
-      <c r="B84" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="85" ht="15.5" spans="1:2">
       <c r="A85" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" t="s">
         <v>167</v>
-      </c>
-      <c r="B85" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="86" ht="15.5" spans="1:2">
       <c r="A86" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" t="s">
         <v>169</v>
-      </c>
-      <c r="B86" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="87" ht="15.5" spans="1:2">
       <c r="A87" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" s="13" t="s">
         <v>171</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="88" ht="15.5" spans="1:2">
       <c r="A88" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" t="s">
         <v>173</v>
-      </c>
-      <c r="B88" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="89" ht="15.5" spans="1:2">
       <c r="A89" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" t="s">
         <v>175</v>
-      </c>
-      <c r="B89" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="90" ht="15.5" spans="1:2">
       <c r="A90" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" t="s">
         <v>177</v>
-      </c>
-      <c r="B90" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="91" ht="15.5" spans="1:2">
       <c r="A91" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" t="s">
         <v>179</v>
-      </c>
-      <c r="B91" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="92" ht="15.5" spans="1:2">
       <c r="A92" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" t="s">
         <v>181</v>
-      </c>
-      <c r="B92" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="93" ht="15.5" spans="1:2">
       <c r="A93" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" t="s">
         <v>183</v>
-      </c>
-      <c r="B93" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="94" ht="15.5" spans="1:2">
       <c r="A94" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" t="s">
         <v>185</v>
-      </c>
-      <c r="B94" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="95" ht="15.5" spans="1:2">
       <c r="A95" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" t="s">
         <v>187</v>
-      </c>
-      <c r="B95" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="96" ht="15.5" spans="1:2">
       <c r="A96" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" t="s">
         <v>189</v>
-      </c>
-      <c r="B96" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="97" ht="15.5" spans="1:2">
       <c r="A97" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" t="s">
         <v>191</v>
-      </c>
-      <c r="B97" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="98" ht="15.5" spans="1:2">
       <c r="A98" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" t="s">
         <v>193</v>
-      </c>
-      <c r="B98" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="99" ht="15.5" spans="1:2">
       <c r="A99" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" t="s">
         <v>195</v>
-      </c>
-      <c r="B99" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="100" ht="15.5" spans="1:2">
       <c r="A100" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" t="s">
         <v>197</v>
-      </c>
-      <c r="B100" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="101" ht="15.5" spans="1:2">
       <c r="A101" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" t="s">
         <v>199</v>
-      </c>
-      <c r="B101" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="102" ht="15.5" spans="1:2">
       <c r="A102" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" t="s">
         <v>201</v>
-      </c>
-      <c r="B102" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="103" ht="15.5" spans="1:2">
       <c r="A103" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" t="s">
         <v>203</v>
-      </c>
-      <c r="B103" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="104" ht="15.5" spans="1:2">
       <c r="A104" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" t="s">
         <v>205</v>
-      </c>
-      <c r="B104" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="105" ht="15.5" spans="1:2">
       <c r="A105" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" t="s">
         <v>207</v>
-      </c>
-      <c r="B105" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="106" ht="15.5" spans="1:2">
       <c r="A106" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" t="s">
         <v>209</v>
-      </c>
-      <c r="B106" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="107" ht="15.5" spans="1:2">
       <c r="A107" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" t="s">
         <v>211</v>
-      </c>
-      <c r="B107" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="108" ht="15.5" spans="1:2">
       <c r="A108" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" t="s">
         <v>213</v>
-      </c>
-      <c r="B108" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="109" ht="15.5" spans="1:2">
       <c r="A109" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B109" t="s">
         <v>215</v>
-      </c>
-      <c r="B109" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="110" ht="15.5" spans="1:2">
       <c r="A110" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" t="s">
         <v>217</v>
-      </c>
-      <c r="B110" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="111" ht="15.5" spans="1:2">
       <c r="A111" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" t="s">
         <v>219</v>
-      </c>
-      <c r="B111" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="112" ht="15.5" spans="1:2">
       <c r="A112" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" t="s">
         <v>221</v>
-      </c>
-      <c r="B112" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="113" ht="15.5" spans="1:2">
       <c r="A113" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B113" t="s">
         <v>223</v>
-      </c>
-      <c r="B113" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="114" ht="15.5" spans="1:2">
       <c r="A114" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B114" t="s">
         <v>225</v>
-      </c>
-      <c r="B114" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="115" ht="15.5" spans="1:2">
       <c r="A115" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B115" t="s">
         <v>227</v>
-      </c>
-      <c r="B115" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="116" ht="15.5" spans="1:2">
       <c r="A116" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B116" t="s">
         <v>229</v>
-      </c>
-      <c r="B116" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="117" ht="15.5" spans="1:2">
       <c r="A117" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B117" t="s">
         <v>231</v>
-      </c>
-      <c r="B117" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="118" ht="15.5" spans="1:2">
       <c r="A118" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B118" t="s">
         <v>233</v>
-      </c>
-      <c r="B118" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="119" ht="15.5" spans="1:2">
       <c r="A119" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B119" t="s">
         <v>235</v>
-      </c>
-      <c r="B119" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="120" ht="15.5" spans="1:2">
       <c r="A120" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B120" t="s">
         <v>237</v>
-      </c>
-      <c r="B120" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="121" ht="15.5" spans="1:2">
       <c r="A121" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B121" t="s">
         <v>239</v>
-      </c>
-      <c r="B121" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="122" ht="15.5" spans="1:2">
       <c r="A122" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B122" t="s">
         <v>241</v>
-      </c>
-      <c r="B122" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="123" ht="15.5" spans="1:2">
       <c r="A123" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B123" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" ht="15.5" spans="1:2">
       <c r="A124" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B124" t="s">
         <v>244</v>
-      </c>
-      <c r="B124" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="125" ht="15.5" spans="1:2">
       <c r="A125" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B125" t="s">
         <v>246</v>
-      </c>
-      <c r="B125" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="126" ht="15.5" spans="1:2">
       <c r="A126" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B126" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="127" ht="15.5" spans="1:2">
       <c r="A127" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B127" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="128" ht="15.5" spans="1:2">
       <c r="A128" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129" ht="15.5" spans="1:2">
       <c r="A129" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B129" t="s">
         <v>251</v>
-      </c>
-      <c r="B129" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="130" ht="15.5" spans="1:2">
       <c r="A130" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B130" s="10" t="s">
         <v>253</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/tests/artifact/data/UI-Settings.data.xlsx
+++ b/tests/artifact/data/UI-Settings.data.xlsx
@@ -2124,8 +2124,8 @@
   <sheetPr/>
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>

--- a/tests/artifact/data/UI-Settings.data.xlsx
+++ b/tests/artifact/data/UI-Settings.data.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950"/>
+    <workbookView windowWidth="18350" windowHeight="6920"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -67,7 +80,7 @@
     <t>title.locator</t>
   </si>
   <si>
-    <t>//*[text()='Welcome Accion']</t>
+    <t>//*[contains(text(),'Welcome')]</t>
   </si>
   <si>
     <t>title.header</t>
@@ -82,7 +95,7 @@
     <t>Org.Name</t>
   </si>
   <si>
-    <t>User</t>
+    <t>HINDUSTAN COPPER LTD</t>
   </si>
   <si>
     <t>org.hamburger</t>
@@ -640,13 +653,13 @@
     <t>GSTINValidate.Form</t>
   </si>
   <si>
-    <t>//h5[@id="gstin-validation-modal___BV_modal_title_"]</t>
+    <t>//h5[text()='GSTIN Validation']</t>
   </si>
   <si>
     <t>ValidateButton.Close</t>
   </si>
   <si>
-    <t>//button[text()='×']</t>
+    <t>//button[text()=' x']</t>
   </si>
   <si>
     <t>Organization.PAN</t>
@@ -790,7 +803,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -2121,8 +2134,8 @@
   <sheetPr/>
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>

--- a/tests/artifact/data/UI-Settings.data.xlsx
+++ b/tests/artifact/data/UI-Settings.data.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950"/>
+    <workbookView windowWidth="18350" windowHeight="6920"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="256">
   <si>
     <r>
       <rPr>
@@ -67,7 +80,7 @@
     <t>title.locator</t>
   </si>
   <si>
-    <t>//*[text()='Welcome Accion']</t>
+    <t>//*[contains(text(),'Welcome')]</t>
   </si>
   <si>
     <t>title.header</t>
@@ -82,7 +95,7 @@
     <t>Org.Name</t>
   </si>
   <si>
-    <t>User</t>
+    <t>HINDUSTAN COPPER LTD</t>
   </si>
   <si>
     <t>org.hamburger</t>
@@ -181,10 +194,16 @@
     <t>//select[@id="gs-t2-select-30"]</t>
   </si>
   <si>
+    <t>org.Transaction.NegativeStock</t>
+  </si>
+  <si>
+    <t>//label/span[text()=' Allow Negative Stock ']/parent::label/following-sibling::div/div/input[@type="checkbox"]</t>
+  </si>
+  <si>
     <t>org.Transaction.TrackTransaction</t>
   </si>
   <si>
-    <t>//input[@type="checkbox"]</t>
+    <t>//label/span[text()='Use Customer / Supplier ledgers to track transactions']/parent::label/following-sibling::div/div/input[@type="checkbox"]</t>
   </si>
   <si>
     <t>Org.ImportData</t>
@@ -640,13 +659,13 @@
     <t>GSTINValidate.Form</t>
   </si>
   <si>
-    <t>//h5[@id="gstin-validation-modal___BV_modal_title_"]</t>
+    <t>//h5[text()='GSTIN Validation']</t>
   </si>
   <si>
     <t>ValidateButton.Close</t>
   </si>
   <si>
-    <t>//button[text()='×']</t>
+    <t>//button[text()=' x']</t>
   </si>
   <si>
     <t>Organization.PAN</t>
@@ -790,7 +809,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -2119,10 +2138,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
@@ -2413,7 +2432,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" ht="16" spans="1:2">
+    <row r="36" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A36" s="4" t="s">
         <v>68</v>
       </c>
@@ -2437,11 +2456,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
+    <row r="39" ht="16" spans="1:2">
       <c r="A39" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="8" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2449,15 +2468,15 @@
       <c r="A40" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" s="3" customFormat="1" ht="16" spans="1:2">
+    <row r="41" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A41" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="8" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2597,11 +2616,11 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" ht="15.5" spans="1:2">
+    <row r="59" s="3" customFormat="1" ht="16" spans="1:2">
       <c r="A59" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2645,15 +2664,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" ht="16" spans="1:2">
+    <row r="65" ht="15.5" spans="1:2">
       <c r="A65" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
+    <row r="66" ht="16" spans="1:2">
       <c r="A66" s="4" t="s">
         <v>128</v>
       </c>
@@ -2661,11 +2680,11 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" ht="15.5" spans="1:2">
+    <row r="67" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
       <c r="A67" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="8" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2766,7 +2785,7 @@
       </c>
     </row>
     <row r="80" ht="15.5" spans="1:2">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="4" t="s">
         <v>156</v>
       </c>
       <c r="B80" t="s">
@@ -2781,19 +2800,19 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" ht="16" spans="1:2">
+    <row r="82" ht="15.5" spans="1:2">
       <c r="A82" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="83" ht="15.5" spans="1:2">
-      <c r="A83" s="4" t="s">
+    <row r="83" ht="16" spans="1:2">
+      <c r="A83" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="8" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2806,7 +2825,7 @@
       </c>
     </row>
     <row r="85" ht="15.5" spans="1:2">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B85" t="s">
@@ -2825,7 +2844,7 @@
       <c r="A87" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B87" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2833,7 +2852,7 @@
       <c r="A88" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3114,15 +3133,15 @@
         <v>242</v>
       </c>
       <c r="B123" t="s">
-        <v>143</v>
+        <v>243</v>
       </c>
     </row>
     <row r="124" ht="15.5" spans="1:2">
       <c r="A124" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B124" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" ht="15.5" spans="1:2">
@@ -3138,988 +3157,1018 @@
         <v>247</v>
       </c>
       <c r="B126" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
     </row>
     <row r="127" ht="15.5" spans="1:2">
       <c r="A127" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B127" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="128" ht="15.5" spans="1:2">
-      <c r="A128" s="4" t="s">
-        <v>249</v>
+      <c r="A128" s="12" t="s">
+        <v>250</v>
       </c>
       <c r="B128" t="s">
-        <v>37</v>
+        <v>237</v>
       </c>
     </row>
     <row r="129" ht="15.5" spans="1:2">
       <c r="A129" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B129" t="s">
-        <v>251</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130" ht="15.5" spans="1:2">
       <c r="A130" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" t="s">
         <v>253</v>
+      </c>
+    </row>
+    <row r="131" ht="15.5" spans="1:2">
+      <c r="A131" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="78" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="84" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="77" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="1" priority="83" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="76" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="2" priority="82" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="75" stopIfTrue="1" operator="equal" text="//">
+    <cfRule type="beginsWith" dxfId="3" priority="81" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A1,LEN("//"))="//"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="beginsWith" dxfId="3" priority="225" stopIfTrue="1" operator="equal" text="//">
+    <cfRule type="beginsWith" dxfId="3" priority="231" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A15,LEN("//"))="//"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="226" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="2" priority="232" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A15,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="227" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="1" priority="233" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A15,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="228" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="234" stopIfTrue="1">
       <formula>LEN(TRIM(A15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="4" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="235" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="230">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="236">
       <formula>LEN(TRIM(B15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="beginsWith" dxfId="3" priority="207" stopIfTrue="1" operator="equal" text="//">
+    <cfRule type="beginsWith" dxfId="3" priority="213" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A18,LEN("//"))="//"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="208" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="2" priority="214" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A18,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="209" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="1" priority="215" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A18,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="210" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="216" stopIfTrue="1">
       <formula>LEN(TRIM(A18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:E18">
-    <cfRule type="expression" dxfId="4" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="217" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="212">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="218">
       <formula>LEN(TRIM(B18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
+    <cfRule type="beginsWith" dxfId="3" priority="209" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A22,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="210" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A22,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="211" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A22,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="212" stopIfTrue="1">
+      <formula>LEN(TRIM(A22))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="beginsWith" dxfId="3" priority="47" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A23,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="48" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A23,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="49" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A23,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="50" stopIfTrue="1">
+      <formula>LEN(TRIM(A23))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
     <cfRule type="beginsWith" dxfId="3" priority="203" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A22,LEN("//"))="//"</formula>
+      <formula>LEFT(A24,LEN("//"))="//"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="204" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A22,LEN("nexial.scope."))="nexial.scope."</formula>
+      <formula>LEFT(A24,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="205" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A22,LEN("nexial."))="nexial."</formula>
+      <formula>LEFT(A24,LEN("nexial."))="nexial."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="0" priority="206" stopIfTrue="1">
-      <formula>LEN(TRIM(A22))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="beginsWith" dxfId="3" priority="41" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A23,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="42" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A23,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="43" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A23,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="44" stopIfTrue="1">
-      <formula>LEN(TRIM(A23))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="beginsWith" dxfId="3" priority="197" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A24,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="198" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A24,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="199" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A24,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="200" stopIfTrue="1">
       <formula>LEN(TRIM(A24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:E24">
+    <cfRule type="expression" dxfId="4" priority="207" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="208">
+      <formula>LEN(TRIM(B24))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="beginsWith" dxfId="3" priority="39" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A25,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="40" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A25,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A25,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="42" stopIfTrue="1">
+      <formula>LEN(TRIM(A25))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="expression" dxfId="4" priority="43" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="44">
+      <formula>LEN(TRIM(B25))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:E25">
+    <cfRule type="expression" dxfId="4" priority="45" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="46">
+      <formula>LEN(TRIM(C25))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="beginsWith" dxfId="3" priority="193" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A26,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="194" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A26,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="195" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A26,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="196" stopIfTrue="1">
+      <formula>LEN(TRIM(A26))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="expression" dxfId="4" priority="137" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="138">
+      <formula>LEN(TRIM(B26))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:E26">
     <cfRule type="expression" dxfId="4" priority="201" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="202">
-      <formula>LEN(TRIM(B24))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="beginsWith" dxfId="3" priority="33" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A25,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="34" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A25,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A25,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="36" stopIfTrue="1">
-      <formula>LEN(TRIM(A25))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="4" priority="37" stopIfTrue="1">
+      <formula>LEN(TRIM(C26))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="beginsWith" dxfId="3" priority="187" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A27,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="188" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A27,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="189" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A27,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="190" stopIfTrue="1">
+      <formula>LEN(TRIM(A27))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="4" priority="135" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="38">
-      <formula>LEN(TRIM(B25))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:E25">
-    <cfRule type="expression" dxfId="4" priority="39" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="136">
+      <formula>LEN(TRIM(B27))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:E27">
+    <cfRule type="expression" dxfId="4" priority="191" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="40">
-      <formula>LEN(TRIM(C25))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="beginsWith" dxfId="3" priority="187" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A26,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="188" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A26,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="189" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A26,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="190" stopIfTrue="1">
-      <formula>LEN(TRIM(A26))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="4" priority="131" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="192">
+      <formula>LEN(TRIM(C27))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="beginsWith" dxfId="3" priority="181" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A28,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="182" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A28,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="183" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A28,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="184" stopIfTrue="1">
+      <formula>LEN(TRIM(A28))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:E28">
+    <cfRule type="expression" dxfId="4" priority="185" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="132">
-      <formula>LEN(TRIM(B26))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:E26">
-    <cfRule type="expression" dxfId="4" priority="195" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="186">
+      <formula>LEN(TRIM(B28))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>LEN(TRIM(A29))&gt;0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A29,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A29,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="1" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A29,LEN("//"))="//"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:E29">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(B29))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="196">
-      <formula>LEN(TRIM(C26))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="beginsWith" dxfId="3" priority="181" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A27,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="182" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A27,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="183" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A27,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="184" stopIfTrue="1">
-      <formula>LEN(TRIM(A27))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="expression" dxfId="4" priority="177" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="178">
+      <formula>LEN(TRIM(B30))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="beginsWith" dxfId="3" priority="171" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A33,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="172" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A33,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="173" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A33,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="174" stopIfTrue="1">
+      <formula>LEN(TRIM(A33))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:E33">
+    <cfRule type="expression" dxfId="4" priority="175" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="176">
+      <formula>LEN(TRIM(B33))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="beginsWith" dxfId="3" priority="167" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A34,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="168" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A34,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="169" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A34,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="170" stopIfTrue="1">
+      <formula>LEN(TRIM(A34))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="beginsWith" dxfId="3" priority="161" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A35,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="162" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A35,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="163" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A35,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="164" stopIfTrue="1">
+      <formula>LEN(TRIM(A35))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:E35">
+    <cfRule type="expression" dxfId="4" priority="165" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="166">
+      <formula>LEN(TRIM(B35))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="beginsWith" dxfId="3" priority="155" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A36,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="156" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A36,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="157" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A36,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="158" stopIfTrue="1">
+      <formula>LEN(TRIM(A36))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:E36">
+    <cfRule type="expression" dxfId="4" priority="159" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="160">
+      <formula>LEN(TRIM(B36))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="beginsWith" dxfId="3" priority="151" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A37,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="152" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A37,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="153" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A37,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="154" stopIfTrue="1">
+      <formula>LEN(TRIM(A37))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="4" priority="257" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="258">
+      <formula>LEN(TRIM(B37))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="beginsWith" dxfId="3" priority="147" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A38,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="148" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A38,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="149" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A38,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="150" stopIfTrue="1">
+      <formula>LEN(TRIM(A38))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="4" priority="251" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="252">
+      <formula>LEN(TRIM(B38))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39">
+    <cfRule type="beginsWith" dxfId="3" priority="143" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A39,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="144" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A39,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="145" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A39,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="146" stopIfTrue="1">
+      <formula>LEN(TRIM(A39))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="expression" dxfId="4" priority="245" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="246">
+      <formula>LEN(TRIM(B39))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="beginsWith" dxfId="3" priority="139" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A43,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="140" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A43,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="141" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A43,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="142" stopIfTrue="1">
+      <formula>LEN(TRIM(A43))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="beginsWith" dxfId="3" priority="223" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A59,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="224" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A59,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="225" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A59,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="226" stopIfTrue="1">
+      <formula>LEN(TRIM(A59))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="beginsWith" dxfId="3" priority="125" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A66,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="126" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A66,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="127" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A66,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="128" stopIfTrue="1">
+      <formula>LEN(TRIM(A66))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
     <cfRule type="expression" dxfId="4" priority="129" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="130">
-      <formula>LEN(TRIM(B27))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:E27">
-    <cfRule type="expression" dxfId="4" priority="185" stopIfTrue="1">
+      <formula>LEN(TRIM(B66))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="beginsWith" dxfId="3" priority="119" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A67,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="120" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A67,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="121" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A67,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="122" stopIfTrue="1">
+      <formula>LEN(TRIM(A67))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67">
+    <cfRule type="expression" dxfId="4" priority="117" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="186">
-      <formula>LEN(TRIM(C27))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="beginsWith" dxfId="3" priority="175" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A28,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="176" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A28,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="177" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A28,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="178" stopIfTrue="1">
-      <formula>LEN(TRIM(A28))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:E28">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="118">
+      <formula>LEN(TRIM(B67))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67:E67">
+    <cfRule type="expression" dxfId="4" priority="123" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="124">
+      <formula>LEN(TRIM(C67))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="beginsWith" dxfId="3" priority="109" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A72,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="110" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A72,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="111" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A72,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="112" stopIfTrue="1">
+      <formula>LEN(TRIM(A72))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73">
+    <cfRule type="beginsWith" dxfId="3" priority="105" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A73,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="106" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A73,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="107" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A73,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="108" stopIfTrue="1">
+      <formula>LEN(TRIM(A73))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="beginsWith" dxfId="3" priority="97" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A76,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="98" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A76,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="99" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A76,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="100" stopIfTrue="1">
+      <formula>LEN(TRIM(A76))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="expression" dxfId="4" priority="71" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="72">
+      <formula>LEN(TRIM(B83))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85">
+    <cfRule type="beginsWith" dxfId="3" priority="19" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A85,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="20" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A85,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="21" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A85,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="22" stopIfTrue="1">
+      <formula>LEN(TRIM(A85))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A114">
+    <cfRule type="beginsWith" dxfId="3" priority="31" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A114,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="32" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A114,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="33" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A114,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="34" stopIfTrue="1">
+      <formula>LEN(TRIM(A114))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A121">
+    <cfRule type="beginsWith" dxfId="3" priority="23" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A121,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A121,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="25" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A121,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="26" stopIfTrue="1">
+      <formula>LEN(TRIM(A121))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124">
+    <cfRule type="beginsWith" dxfId="3" priority="63" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A124,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="64" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A124,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="65" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A124,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="66" stopIfTrue="1">
+      <formula>LEN(TRIM(A124))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A127">
+    <cfRule type="beginsWith" dxfId="3" priority="7" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A127,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="8" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A127,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="9" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A127,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="10" stopIfTrue="1">
+      <formula>LEN(TRIM(A127))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128">
+    <cfRule type="beginsWith" dxfId="3" priority="59" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A128,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="60" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A128,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="61" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A128,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="62" stopIfTrue="1">
+      <formula>LEN(TRIM(A128))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A129">
+    <cfRule type="beginsWith" dxfId="3" priority="51" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A129,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="52" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A129,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A129,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="54" stopIfTrue="1">
+      <formula>LEN(TRIM(A129))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130">
+    <cfRule type="beginsWith" dxfId="3" priority="15" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A130,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="16" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A130,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A130,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="18" stopIfTrue="1">
+      <formula>LEN(TRIM(A130))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A131">
+    <cfRule type="beginsWith" dxfId="3" priority="11" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A131,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A131,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="13" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A131,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="14" stopIfTrue="1">
+      <formula>LEN(TRIM(A131))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A9">
+    <cfRule type="beginsWith" dxfId="3" priority="269" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A2,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="270" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A2,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="271" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A2,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="272" stopIfTrue="1">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:A11">
+    <cfRule type="beginsWith" dxfId="3" priority="301" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A10,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="302" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A10,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="303" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A10,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="304" stopIfTrue="1">
+      <formula>LEN(TRIM(A10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:A21">
+    <cfRule type="beginsWith" dxfId="3" priority="289" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A19,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="290" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A19,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="291" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A19,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="292" stopIfTrue="1">
+      <formula>LEN(TRIM(A19))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:A32">
+    <cfRule type="beginsWith" dxfId="3" priority="277" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A30,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="278" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A30,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="279" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A30,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="280" stopIfTrue="1">
+      <formula>LEN(TRIM(A30))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:A41">
+    <cfRule type="beginsWith" dxfId="3" priority="237" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A40,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="238" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A40,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="239" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A40,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="240" stopIfTrue="1">
+      <formula>LEN(TRIM(A40))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:A61">
+    <cfRule type="beginsWith" dxfId="3" priority="219" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A60,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="220" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A60,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="221" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A60,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="222" stopIfTrue="1">
+      <formula>LEN(TRIM(A60))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:A71">
+    <cfRule type="beginsWith" dxfId="3" priority="113" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A68,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="114" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A68,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="115" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A68,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="116" stopIfTrue="1">
+      <formula>LEN(TRIM(A68))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74:A75">
+    <cfRule type="beginsWith" dxfId="3" priority="101" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A74,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="102" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A74,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="103" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A74,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="104" stopIfTrue="1">
+      <formula>LEN(TRIM(A74))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77:A81">
+    <cfRule type="beginsWith" dxfId="3" priority="85" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A77,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="86" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A77,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="87" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A77,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="88" stopIfTrue="1">
+      <formula>LEN(TRIM(A77))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82:A83">
+    <cfRule type="beginsWith" dxfId="3" priority="77" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A82,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="78" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A82,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="79" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A82,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="80" stopIfTrue="1">
+      <formula>LEN(TRIM(A82))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A115:A116">
+    <cfRule type="beginsWith" dxfId="3" priority="27" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A115,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="28" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A115,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A115,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="30" stopIfTrue="1">
+      <formula>LEN(TRIM(A115))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A122:A123">
+    <cfRule type="beginsWith" dxfId="3" priority="67" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A122,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="68" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A122,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="69" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A122,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="70" stopIfTrue="1">
+      <formula>LEN(TRIM(A122))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A125:A126">
+    <cfRule type="beginsWith" dxfId="3" priority="55" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A125,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="56" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A125,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="57" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A125,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="58" stopIfTrue="1">
+      <formula>LEN(TRIM(A125))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B9">
+    <cfRule type="expression" dxfId="4" priority="273" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="274">
+      <formula>LEN(TRIM(B2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:B11">
+    <cfRule type="expression" dxfId="4" priority="305" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="306">
+      <formula>LEN(TRIM(B10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:B23">
     <cfRule type="expression" dxfId="4" priority="179" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="180">
-      <formula>LEN(TRIM(B28))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="4" priority="171" stopIfTrue="1">
+      <formula>LEN(TRIM(B22))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:B41">
+    <cfRule type="expression" dxfId="4" priority="241" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="172">
-      <formula>LEN(TRIM(B29))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="beginsWith" dxfId="3" priority="165" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A32,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="166" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A32,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="167" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A32,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="168" stopIfTrue="1">
-      <formula>LEN(TRIM(A32))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:E32">
-    <cfRule type="expression" dxfId="4" priority="169" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="242">
+      <formula>LEN(TRIM(B40))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:E9">
+    <cfRule type="expression" dxfId="4" priority="275" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="170">
-      <formula>LEN(TRIM(B32))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="beginsWith" dxfId="3" priority="161" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A33,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="162" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A33,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="163" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A33,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="164" stopIfTrue="1">
-      <formula>LEN(TRIM(A33))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="beginsWith" dxfId="3" priority="155" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A34,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="156" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A34,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="157" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A34,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="158" stopIfTrue="1">
-      <formula>LEN(TRIM(A34))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:E34">
-    <cfRule type="expression" dxfId="4" priority="159" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="276">
+      <formula>LEN(TRIM(C2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:E14 B16:E17 C10:E11">
+    <cfRule type="expression" dxfId="4" priority="311" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="160">
-      <formula>LEN(TRIM(B34))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="beginsWith" dxfId="3" priority="149" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A35,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="150" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A35,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="151" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A35,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="152" stopIfTrue="1">
-      <formula>LEN(TRIM(A35))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:E35">
-    <cfRule type="expression" dxfId="4" priority="153" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="312">
+      <formula>LEN(TRIM(B10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:A14 A16:A17">
+    <cfRule type="beginsWith" dxfId="3" priority="307" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A12,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="308" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A12,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="309" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A12,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="310" stopIfTrue="1">
+      <formula>LEN(TRIM(A12))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:E21">
+    <cfRule type="expression" dxfId="4" priority="293" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="154">
-      <formula>LEN(TRIM(B35))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="beginsWith" dxfId="3" priority="145" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A36,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="146" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A36,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="147" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A36,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="148" stopIfTrue="1">
-      <formula>LEN(TRIM(A36))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="4" priority="251" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="252">
-      <formula>LEN(TRIM(B36))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="beginsWith" dxfId="3" priority="141" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A37,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="142" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A37,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="143" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A37,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="144" stopIfTrue="1">
-      <formula>LEN(TRIM(A37))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="4" priority="245" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="246">
-      <formula>LEN(TRIM(B37))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="beginsWith" dxfId="3" priority="137" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A38,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="138" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A38,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="139" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A38,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="140" stopIfTrue="1">
-      <formula>LEN(TRIM(A38))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="4" priority="239" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="240">
-      <formula>LEN(TRIM(B38))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
-    <cfRule type="beginsWith" dxfId="3" priority="133" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A42,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="134" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A42,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="135" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A42,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="136" stopIfTrue="1">
-      <formula>LEN(TRIM(A42))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="beginsWith" dxfId="3" priority="217" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A58,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="218" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A58,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="219" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A58,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="220" stopIfTrue="1">
-      <formula>LEN(TRIM(A58))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
-    <cfRule type="beginsWith" dxfId="3" priority="119" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A65,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="120" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A65,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="121" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A65,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="122" stopIfTrue="1">
-      <formula>LEN(TRIM(A65))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
-    <cfRule type="expression" dxfId="4" priority="123" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="124">
-      <formula>LEN(TRIM(B65))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
-    <cfRule type="beginsWith" dxfId="3" priority="113" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A66,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="114" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A66,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="115" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A66,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="116" stopIfTrue="1">
-      <formula>LEN(TRIM(A66))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="expression" dxfId="4" priority="111" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="112">
-      <formula>LEN(TRIM(B66))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66:E66">
-    <cfRule type="expression" dxfId="4" priority="117" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="118">
-      <formula>LEN(TRIM(C66))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="beginsWith" dxfId="3" priority="103" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A71,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="104" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A71,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="105" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A71,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="106" stopIfTrue="1">
-      <formula>LEN(TRIM(A71))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="beginsWith" dxfId="3" priority="99" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A72,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="100" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A72,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="101" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A72,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="102" stopIfTrue="1">
-      <formula>LEN(TRIM(A72))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75">
-    <cfRule type="beginsWith" dxfId="3" priority="91" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A75,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="92" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A75,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="93" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A75,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="94" stopIfTrue="1">
-      <formula>LEN(TRIM(A75))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="expression" dxfId="4" priority="65" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="66">
-      <formula>LEN(TRIM(B82))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="beginsWith" dxfId="3" priority="13" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A84,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="14" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A84,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="15" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A84,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="16" stopIfTrue="1">
-      <formula>LEN(TRIM(A84))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
-    <cfRule type="beginsWith" dxfId="3" priority="25" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A113,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="26" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A113,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="27" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A113,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="28" stopIfTrue="1">
-      <formula>LEN(TRIM(A113))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A120">
-    <cfRule type="beginsWith" dxfId="3" priority="17" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A120,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A120,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="19" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A120,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="20" stopIfTrue="1">
-      <formula>LEN(TRIM(A120))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A123">
-    <cfRule type="beginsWith" dxfId="3" priority="57" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A123,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="58" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A123,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="59" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A123,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="60" stopIfTrue="1">
-      <formula>LEN(TRIM(A123))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
-    <cfRule type="beginsWith" dxfId="3" priority="1" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A126,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A126,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A126,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>LEN(TRIM(A126))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A127">
-    <cfRule type="beginsWith" dxfId="3" priority="53" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A127,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="54" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A127,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="55" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A127,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="56" stopIfTrue="1">
-      <formula>LEN(TRIM(A127))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128">
-    <cfRule type="beginsWith" dxfId="3" priority="45" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A128,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="46" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A128,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="47" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A128,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="48" stopIfTrue="1">
-      <formula>LEN(TRIM(A128))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129">
-    <cfRule type="beginsWith" dxfId="3" priority="9" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A129,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A129,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A129,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="12" stopIfTrue="1">
-      <formula>LEN(TRIM(A129))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A130">
-    <cfRule type="beginsWith" dxfId="3" priority="5" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A130,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A130,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A130,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>LEN(TRIM(A130))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A9">
-    <cfRule type="beginsWith" dxfId="3" priority="263" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A2,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="264" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A2,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="265" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A2,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="266" stopIfTrue="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:A11">
-    <cfRule type="beginsWith" dxfId="3" priority="295" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A10,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="296" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A10,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="297" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A10,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="298" stopIfTrue="1">
-      <formula>LEN(TRIM(A10))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:A21">
-    <cfRule type="beginsWith" dxfId="3" priority="283" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A19,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="284" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A19,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="285" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A19,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="286" stopIfTrue="1">
-      <formula>LEN(TRIM(A19))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:A31">
-    <cfRule type="beginsWith" dxfId="3" priority="271" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A29,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="272" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A29,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="273" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A29,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="274" stopIfTrue="1">
-      <formula>LEN(TRIM(A29))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:A40">
-    <cfRule type="beginsWith" dxfId="3" priority="231" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A39,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="232" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A39,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="233" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A39,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="234" stopIfTrue="1">
-      <formula>LEN(TRIM(A39))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:A60">
-    <cfRule type="beginsWith" dxfId="3" priority="213" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A59,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="214" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A59,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="215" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A59,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="216" stopIfTrue="1">
-      <formula>LEN(TRIM(A59))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:A70">
-    <cfRule type="beginsWith" dxfId="3" priority="107" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A67,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="108" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A67,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="109" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A67,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="110" stopIfTrue="1">
-      <formula>LEN(TRIM(A67))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73:A74">
-    <cfRule type="beginsWith" dxfId="3" priority="95" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A73,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="96" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A73,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="97" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A73,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="98" stopIfTrue="1">
-      <formula>LEN(TRIM(A73))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76:A80">
-    <cfRule type="beginsWith" dxfId="3" priority="79" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A76,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="80" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A76,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="81" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A76,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="82" stopIfTrue="1">
-      <formula>LEN(TRIM(A76))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81:A82">
-    <cfRule type="beginsWith" dxfId="3" priority="71" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A81,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="72" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A81,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="73" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A81,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="74" stopIfTrue="1">
-      <formula>LEN(TRIM(A81))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A114:A115">
-    <cfRule type="beginsWith" dxfId="3" priority="21" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A114,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="22" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A114,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A114,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="24" stopIfTrue="1">
-      <formula>LEN(TRIM(A114))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A121:A122">
-    <cfRule type="beginsWith" dxfId="3" priority="61" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A121,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="62" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A121,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="63" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A121,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="64" stopIfTrue="1">
-      <formula>LEN(TRIM(A121))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:A125">
-    <cfRule type="beginsWith" dxfId="3" priority="49" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A124,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="50" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A124,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="51" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A124,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="52" stopIfTrue="1">
-      <formula>LEN(TRIM(A124))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B9">
-    <cfRule type="expression" dxfId="4" priority="267" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="268">
-      <formula>LEN(TRIM(B2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B11">
-    <cfRule type="expression" dxfId="4" priority="299" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="300">
-      <formula>LEN(TRIM(B10))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B23">
-    <cfRule type="expression" dxfId="4" priority="173" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="174">
-      <formula>LEN(TRIM(B22))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39:B40">
-    <cfRule type="expression" dxfId="4" priority="235" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="236">
-      <formula>LEN(TRIM(B39))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:E9">
-    <cfRule type="expression" dxfId="4" priority="269" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="270">
-      <formula>LEN(TRIM(C2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:E14 B16:E17 C10:E11">
-    <cfRule type="expression" dxfId="4" priority="305" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="306">
-      <formula>LEN(TRIM(B10))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:A14 A16:A17">
-    <cfRule type="beginsWith" dxfId="3" priority="301" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A12,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="302" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A12,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="303" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A12,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="304" stopIfTrue="1">
-      <formula>LEN(TRIM(A12))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:E21">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="294">
+      <formula>LEN(TRIM(B19))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:E23">
     <cfRule type="expression" dxfId="4" priority="287" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="288">
-      <formula>LEN(TRIM(B19))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:E23">
+      <formula>LEN(TRIM(C22))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:E30 B34:E34 B31:E32">
     <cfRule type="expression" dxfId="4" priority="281" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="282">
-      <formula>LEN(TRIM(C22))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29:E29 B30:E31 B33:E33">
-    <cfRule type="expression" dxfId="4" priority="275" stopIfTrue="1">
+      <formula>LEN(TRIM(B30))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:E41">
+    <cfRule type="expression" dxfId="4" priority="243" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="276">
-      <formula>LEN(TRIM(B29))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39:E40">
-    <cfRule type="expression" dxfId="4" priority="237" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="238">
-      <formula>LEN(TRIM(C39))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41 A43:A57">
-    <cfRule type="beginsWith" dxfId="3" priority="221" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A41,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="222" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A41,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="223" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A41,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="224" stopIfTrue="1">
-      <formula>LEN(TRIM(A41))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:A64 A83">
-    <cfRule type="beginsWith" dxfId="3" priority="125" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A61,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="126" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A61,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="127" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A61,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="128" stopIfTrue="1">
-      <formula>LEN(TRIM(A61))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85:A112 A116:A119">
-    <cfRule type="beginsWith" dxfId="3" priority="67" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A85,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="68" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A85,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="69" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A85,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="70" stopIfTrue="1">
-      <formula>LEN(TRIM(A85))&gt;0</formula>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="244">
+      <formula>LEN(TRIM(C40))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42 A44:A58">
+    <cfRule type="beginsWith" dxfId="3" priority="227" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A42,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="228" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A42,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="229" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A42,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="230" stopIfTrue="1">
+      <formula>LEN(TRIM(A42))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:A65 A84">
+    <cfRule type="beginsWith" dxfId="3" priority="131" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A62,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="132" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A62,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="133" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A62,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="134" stopIfTrue="1">
+      <formula>LEN(TRIM(A62))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A86:A113 A117:A120">
+    <cfRule type="beginsWith" dxfId="3" priority="73" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A86,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="74" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A86,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="75" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A86,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="76" stopIfTrue="1">
+      <formula>LEN(TRIM(A86))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tests/artifact/data/UI-Settings.data.xlsx
+++ b/tests/artifact/data/UI-Settings.data.xlsx
@@ -2140,8 +2140,8 @@
   <sheetPr/>
   <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>

--- a/tests/artifact/data/UI-Settings.data.xlsx
+++ b/tests/artifact/data/UI-Settings.data.xlsx
@@ -2140,8 +2140,8 @@
   <sheetPr/>
   <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
